--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,7 +1523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11:Z102"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1904,26 +1904,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1937,56 +1937,59 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
+      <c r="P14">
+        <v>16</v>
+      </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="Y15">
         <f t="shared" si="0"/>
@@ -1997,26 +2000,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2030,26 +2033,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="Y17">
         <f t="shared" si="0"/>
@@ -2060,56 +2063,59 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
+      <c r="P18">
+        <v>15</v>
+      </c>
       <c r="Y18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Y19">
         <f t="shared" si="0"/>
@@ -2120,86 +2126,92 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
+      <c r="P20">
+        <v>13</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z20">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
+      <c r="P21">
+        <v>16</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Y22">
         <f t="shared" si="0"/>
@@ -2210,56 +2222,59 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
+      <c r="P23">
+        <v>18</v>
+      </c>
       <c r="Y23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z23">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2273,26 +2288,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="Y25">
         <f t="shared" si="0"/>
@@ -2303,26 +2318,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="Y26">
         <f t="shared" si="0"/>
@@ -2333,56 +2348,59 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
+      <c r="P27">
+        <v>15</v>
+      </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Y28">
         <f t="shared" si="0"/>
@@ -2393,26 +2411,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="Y29">
         <f t="shared" si="0"/>
@@ -2423,26 +2441,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Y30">
         <f t="shared" si="0"/>
@@ -2453,26 +2471,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="Y31">
         <f t="shared" si="0"/>
@@ -2483,86 +2501,92 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
+      <c r="P32">
+        <v>16</v>
+      </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z32">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
+      <c r="P33">
+        <v>13</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z33">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="Y34">
         <f t="shared" si="0"/>
@@ -2573,26 +2597,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="Y35">
         <f t="shared" si="0"/>
@@ -2603,26 +2627,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Y36">
         <f t="shared" si="0"/>
@@ -2633,86 +2657,92 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
+      <c r="P37">
+        <v>13</v>
+      </c>
       <c r="Y37">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z37">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
+      <c r="P38">
+        <v>15</v>
+      </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z38">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2726,26 +2756,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2759,56 +2789,59 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
+      <c r="P41">
+        <v>19</v>
+      </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -2822,26 +2855,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -2855,56 +2888,59 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
+      <c r="P44">
+        <v>16</v>
+      </c>
       <c r="Y44">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -2918,26 +2954,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -2951,26 +2987,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -2984,26 +3020,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="Y48">
         <f t="shared" si="0"/>
@@ -3014,116 +3050,125 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
+      <c r="P49">
+        <v>13</v>
+      </c>
       <c r="Y49">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z49">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
+      <c r="P50">
+        <v>16</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z50">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
+      <c r="P51">
+        <v>14</v>
+      </c>
       <c r="Y51">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z51">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Y52">
         <f t="shared" si="0"/>
@@ -3134,86 +3179,92 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
+      <c r="P53">
+        <v>15</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z53">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
+      <c r="P54">
+        <v>15</v>
+      </c>
       <c r="Y54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z54">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Y55">
         <f t="shared" si="0"/>
@@ -3224,146 +3275,158 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
+      <c r="P56">
+        <v>15</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z56">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
+      <c r="P57">
+        <v>17</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
+      <c r="P58">
+        <v>17</v>
+      </c>
       <c r="Y58">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z58">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
+      <c r="P59">
+        <v>13</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3377,26 +3440,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3410,206 +3473,224 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
+      <c r="P62">
+        <v>21</v>
+      </c>
       <c r="Y62">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="Z62">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
+      <c r="P63">
+        <v>15</v>
+      </c>
       <c r="Y63">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
+      <c r="P64">
+        <v>13</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
+      <c r="P65">
+        <v>13</v>
+      </c>
       <c r="Y65">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z65">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
+      <c r="P66">
+        <v>15</v>
+      </c>
       <c r="Y66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
+      <c r="P67">
+        <v>19</v>
+      </c>
       <c r="Y67">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3623,416 +3704,455 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
+      <c r="P69">
+        <v>16</v>
+      </c>
       <c r="Y69">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z69">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
+      <c r="P70">
+        <v>17</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z70">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
+      <c r="P71">
+        <v>17</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z71">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
+      <c r="P72">
+        <v>13</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z72">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
+      <c r="P73">
+        <v>16</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
+      <c r="P74">
+        <v>15</v>
+      </c>
       <c r="Y74">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
+      <c r="P75">
+        <v>17</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z75">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
+      <c r="P76">
+        <v>17</v>
+      </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y102" si="1">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z76">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
+      <c r="P77">
+        <v>15</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z77">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
+      <c r="P78">
+        <v>13</v>
+      </c>
       <c r="Y78">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z78">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
+      <c r="P79">
+        <v>16</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z79">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
+      <c r="P80">
+        <v>17</v>
+      </c>
       <c r="Y80">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z80">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
+      <c r="P81">
+        <v>16</v>
+      </c>
       <c r="Y81">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z81">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4046,86 +4166,92 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
+      <c r="P83">
+        <v>15</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z83">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
+      <c r="P84">
+        <v>15</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z84">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="Y85">
         <f t="shared" si="1"/>
@@ -4136,116 +4262,125 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
+      <c r="P86">
+        <v>16</v>
+      </c>
       <c r="Y86">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z86">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
+      <c r="P87">
+        <v>16</v>
+      </c>
       <c r="Y87">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z87">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
+      <c r="P88">
+        <v>16</v>
+      </c>
       <c r="Y88">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z88">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4259,56 +4394,59 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
+      <c r="P90">
+        <v>16</v>
+      </c>
       <c r="Y90">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z90">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="Y91">
         <f t="shared" si="1"/>
@@ -4319,26 +4457,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Y92">
         <f t="shared" si="1"/>
@@ -4349,20 +4487,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="Y93">
         <f t="shared" si="1"/>
@@ -4373,20 +4511,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="Y94">
         <f t="shared" si="1"/>
@@ -4397,20 +4535,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="Y95">
         <f t="shared" si="1"/>
@@ -4421,20 +4559,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="Y96">
         <f t="shared" si="1"/>
@@ -4445,20 +4583,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="Y97">
         <f t="shared" si="1"/>
@@ -4469,20 +4607,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="Y98">
         <f t="shared" si="1"/>
@@ -4493,20 +4631,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="Y99">
         <f t="shared" si="1"/>
@@ -4517,20 +4655,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="Y100">
         <f t="shared" si="1"/>
@@ -4541,20 +4679,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="Y101">
         <f t="shared" si="1"/>
@@ -4565,20 +4703,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="Y102">
         <f t="shared" si="1"/>
@@ -4599,39 +4737,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -4656,431 +5186,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1904,59 +1904,62 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
       </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1970,26 +1973,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="Y15">
         <f t="shared" si="0"/>
@@ -2000,59 +2003,62 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
       </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
       <c r="Y16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="Y17">
         <f t="shared" si="0"/>
@@ -2063,251 +2069,272 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
       </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
       <c r="Y18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
+      <c r="Q19">
+        <v>5</v>
+      </c>
       <c r="Y19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z19">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
       </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z20">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
       </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
+      <c r="Q22">
+        <v>5</v>
+      </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
       </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
       <c r="Y23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z23">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
       </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z24">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="Y25">
         <f t="shared" si="0"/>
@@ -2318,26 +2345,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="Y26">
         <f t="shared" si="0"/>
@@ -2348,26 +2375,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2381,56 +2408,59 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
+      <c r="Q28">
+        <v>5</v>
+      </c>
       <c r="Y28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z28">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="Y29">
         <f t="shared" si="0"/>
@@ -2441,56 +2471,59 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
+      <c r="Q30">
+        <v>5</v>
+      </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z30">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
       <c r="Y31">
         <f t="shared" si="0"/>
@@ -2501,92 +2534,98 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
       </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z32">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
       </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z33">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
       <c r="Y34">
         <f t="shared" si="0"/>
@@ -2597,26 +2636,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
       <c r="Y35">
         <f t="shared" si="0"/>
@@ -2627,56 +2666,59 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
+      <c r="Q36">
+        <v>5</v>
+      </c>
       <c r="Y36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z36">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2690,26 +2732,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2723,59 +2765,62 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
       </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z39">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2789,191 +2834,206 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
       </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
       </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z42">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
       </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
       <c r="Y43">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
       </c>
+      <c r="Q44">
+        <v>5</v>
+      </c>
       <c r="Y44">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
       </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
       <c r="Y45">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -2987,26 +3047,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3020,26 +3080,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="Y48">
         <f t="shared" si="0"/>
@@ -3050,26 +3110,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3083,26 +3143,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3116,26 +3176,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3149,218 +3209,236 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
+      <c r="Q52">
+        <v>5</v>
+      </c>
       <c r="Y52">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z52">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
       </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z53">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
       </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
       <c r="Y54">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z54">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
+      <c r="Q55">
+        <v>5</v>
+      </c>
       <c r="Y55">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z55">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
       </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z56">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
       </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3374,257 +3452,278 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
       </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
       </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
       <c r="Y60">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Z60">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
       </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
       <c r="Y61">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Z61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
       </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
       <c r="Y62">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Z62">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
       </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
       <c r="Y63">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
       </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
       </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
       <c r="Y65">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z65">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -3638,389 +3737,422 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
       </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
       <c r="Y67">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
       </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
       <c r="Y68">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z68">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
       </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
       <c r="Y69">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z69">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
       </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z70">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
       </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z71">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
       </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z72">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
       </c>
+      <c r="Q73">
+        <v>5</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
       </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
       <c r="Y74">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
       </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z75">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
       </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y102" si="1">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z76">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
       </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z77">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4034,224 +4166,242 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
       </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z79">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
       </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
       <c r="Y80">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z80">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
       </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
       <c r="Y81">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z81">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
       </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
       <c r="Y82">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z82">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
       </c>
+      <c r="Q83">
+        <v>5</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z83">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
       </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z84">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
       <c r="Y85">
         <f t="shared" si="1"/>
@@ -4262,191 +4412,206 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
       </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
       <c r="Y86">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z86">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
       </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
       <c r="Y87">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z87">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
       </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
       <c r="Y88">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z88">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
       </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
       <c r="Y89">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z89">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
       </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
       <c r="Y90">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z90">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
       <c r="Y91">
         <f t="shared" si="1"/>
@@ -4457,50 +4622,53 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
+      <c r="Q92">
+        <v>5</v>
+      </c>
       <c r="Y92">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z92">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
       <c r="Y93">
         <f t="shared" si="1"/>
@@ -4511,20 +4679,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
       <c r="Y94">
         <f t="shared" si="1"/>
@@ -4535,20 +4703,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
       <c r="Y95">
         <f t="shared" si="1"/>
@@ -4559,20 +4727,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
       <c r="Y96">
         <f t="shared" si="1"/>
@@ -4583,20 +4751,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
       <c r="Y97">
         <f t="shared" si="1"/>
@@ -4607,20 +4775,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
       <c r="Y98">
         <f t="shared" si="1"/>
@@ -4631,20 +4799,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
       <c r="Y99">
         <f t="shared" si="1"/>
@@ -4655,20 +4823,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
       <c r="Y100">
         <f t="shared" si="1"/>
@@ -4679,20 +4847,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
       <c r="Y101">
         <f t="shared" si="1"/>
@@ -4703,20 +4871,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
       <c r="Y102">
         <f t="shared" si="1"/>
@@ -4737,6 +4905,464 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="E102:G102"/>
@@ -4761,464 +5387,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,11 +1519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q86" sqref="Q86"/>
+      <pane ySplit="10" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,30 +1871,33 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
       </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
       <c r="Y12">
         <f t="shared" ref="Y12:Y75" si="0">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
         <v>19</v>
@@ -1904,26 +1907,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1931,6 +1934,9 @@
       <c r="Q13">
         <v>2</v>
       </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
       <c r="Y13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1940,60 +1946,66 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
       </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
+      <c r="V15">
+        <v>2</v>
+      </c>
       <c r="Y15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2003,26 +2015,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2030,6 +2042,9 @@
       <c r="Q16">
         <v>2</v>
       </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
       <c r="Y16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2039,27 +2054,30 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
+      <c r="V17">
+        <v>1</v>
+      </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2069,26 +2087,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2096,6 +2114,9 @@
       <c r="Q18">
         <v>5</v>
       </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
       <c r="Y18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2105,30 +2126,33 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
       </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
       <c r="Y19">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2138,26 +2162,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2165,6 +2189,9 @@
       <c r="Q20">
         <v>5</v>
       </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2174,26 +2201,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2201,6 +2228,9 @@
       <c r="Q21">
         <v>5</v>
       </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2210,30 +2240,33 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
       </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
       <c r="Y22">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2243,26 +2276,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2270,6 +2303,9 @@
       <c r="Q23">
         <v>5</v>
       </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
       <c r="Y23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2279,26 +2315,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2306,6 +2342,9 @@
       <c r="Q24">
         <v>5</v>
       </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
       <c r="Y24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2315,27 +2354,30 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
+      <c r="V25">
+        <v>1</v>
+      </c>
       <c r="Y25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2345,27 +2387,30 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
+      <c r="V26">
+        <v>1</v>
+      </c>
       <c r="Y26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2375,30 +2420,33 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
       </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
       <c r="Y27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2408,30 +2456,33 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
       </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
       <c r="Y28">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2441,27 +2492,30 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
+      <c r="V29">
+        <v>1</v>
+      </c>
       <c r="Y29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2471,30 +2525,33 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
       </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
       <c r="Y30">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2504,27 +2561,30 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
+      <c r="V31">
+        <v>1</v>
+      </c>
       <c r="Y31">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2534,26 +2594,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2561,6 +2621,9 @@
       <c r="Q32">
         <v>2</v>
       </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
       <c r="Y32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2570,26 +2633,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2597,6 +2660,9 @@
       <c r="Q33">
         <v>5</v>
       </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2606,27 +2672,30 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
+      <c r="V34">
+        <v>1</v>
+      </c>
       <c r="Y34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2636,27 +2705,30 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
+      <c r="V35">
+        <v>1</v>
+      </c>
       <c r="Y35">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2666,30 +2738,33 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
       </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
       <c r="Y36">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2699,30 +2774,33 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
       </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
       <c r="Y37">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2732,30 +2810,33 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
       </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
       <c r="Y38">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2765,26 +2846,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2792,6 +2873,9 @@
       <c r="Q39">
         <v>2</v>
       </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
       <c r="Y39">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2801,30 +2885,33 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
       </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
       <c r="Y40">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2834,26 +2921,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -2861,6 +2948,9 @@
       <c r="Q41">
         <v>2</v>
       </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
       <c r="Y41">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2870,26 +2960,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -2897,6 +2987,9 @@
       <c r="Q42">
         <v>5</v>
       </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
       <c r="Y42">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2906,26 +2999,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -2933,6 +3026,9 @@
       <c r="Q43">
         <v>2</v>
       </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
       <c r="Y43">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2942,26 +3038,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -2969,6 +3065,9 @@
       <c r="Q44">
         <v>5</v>
       </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
       <c r="Y44">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2978,26 +3077,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3005,6 +3104,9 @@
       <c r="Q45">
         <v>5</v>
       </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
       <c r="Y45">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3014,30 +3116,33 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
       </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
       <c r="Y46">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3047,30 +3152,33 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
       </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
       <c r="Y47">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3080,27 +3188,30 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
+      <c r="V48">
+        <v>1</v>
+      </c>
       <c r="Y48">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3110,30 +3221,33 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
       </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
       <c r="Y49">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3143,30 +3257,33 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
       </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3176,30 +3293,33 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
       </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
       <c r="Y51">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3209,30 +3329,33 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
       </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
       <c r="Y52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3242,26 +3365,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3269,6 +3392,9 @@
       <c r="Q53">
         <v>5</v>
       </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3278,26 +3404,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3305,6 +3431,9 @@
       <c r="Q54">
         <v>1</v>
       </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
       <c r="Y54">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3314,30 +3443,33 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
       </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
       <c r="Y55">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3347,26 +3479,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3374,6 +3506,9 @@
       <c r="Q56">
         <v>5</v>
       </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3383,26 +3518,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3410,6 +3545,9 @@
       <c r="Q57">
         <v>5</v>
       </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3419,30 +3557,33 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
       </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
       <c r="Y58">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3452,26 +3593,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3479,6 +3620,9 @@
       <c r="Q59">
         <v>5</v>
       </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3488,26 +3632,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3515,6 +3659,9 @@
       <c r="Q60">
         <v>5</v>
       </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
       <c r="Y60">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3524,26 +3671,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3551,6 +3698,9 @@
       <c r="Q61">
         <v>5</v>
       </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
       <c r="Y61">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3560,26 +3710,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3587,6 +3737,9 @@
       <c r="Q62">
         <v>5</v>
       </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
       <c r="Y62">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3596,26 +3749,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3623,6 +3776,9 @@
       <c r="Q63">
         <v>5</v>
       </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
       <c r="Y63">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3632,26 +3788,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3659,6 +3815,9 @@
       <c r="Q64">
         <v>2</v>
       </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3668,26 +3827,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -3695,6 +3854,9 @@
       <c r="Q65">
         <v>5</v>
       </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
       <c r="Y65">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3704,30 +3866,33 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
       </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
       <c r="Y66">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3737,26 +3902,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -3764,6 +3929,9 @@
       <c r="Q67">
         <v>5</v>
       </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
       <c r="Y67">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3773,26 +3941,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3800,6 +3968,9 @@
       <c r="Q68">
         <v>2</v>
       </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
       <c r="Y68">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3809,26 +3980,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -3836,6 +4007,9 @@
       <c r="Q69">
         <v>5</v>
       </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
       <c r="Y69">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3845,26 +4019,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -3872,6 +4046,9 @@
       <c r="Q70">
         <v>5</v>
       </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3881,26 +4058,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -3908,6 +4085,9 @@
       <c r="Q71">
         <v>2</v>
       </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3917,26 +4097,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -3944,6 +4124,9 @@
       <c r="Q72">
         <v>5</v>
       </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3953,26 +4136,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -3980,6 +4163,9 @@
       <c r="Q73">
         <v>5</v>
       </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3989,26 +4175,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4016,6 +4202,9 @@
       <c r="Q74">
         <v>5</v>
       </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
       <c r="Y74">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4025,26 +4214,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4052,6 +4241,9 @@
       <c r="Q75">
         <v>2</v>
       </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4061,26 +4253,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4088,6 +4280,9 @@
       <c r="Q76">
         <v>2</v>
       </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y102" si="1">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
         <v>24</v>
@@ -4097,26 +4292,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4124,6 +4319,9 @@
       <c r="Q77">
         <v>5</v>
       </c>
+      <c r="V77">
+        <v>2</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4133,30 +4331,33 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
       </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
       <c r="Y78">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -4166,26 +4367,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4193,35 +4394,38 @@
       <c r="Q79">
         <v>2</v>
       </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z79">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4229,6 +4433,9 @@
       <c r="Q80">
         <v>5</v>
       </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
       <c r="Y80">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -4238,26 +4445,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4265,6 +4472,9 @@
       <c r="Q81">
         <v>5</v>
       </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
       <c r="Y81">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4274,26 +4484,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4301,6 +4511,9 @@
       <c r="Q82">
         <v>5</v>
       </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
       <c r="Y82">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4310,26 +4523,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4337,6 +4550,9 @@
       <c r="Q83">
         <v>5</v>
       </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4346,26 +4562,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4373,6 +4589,9 @@
       <c r="Q84">
         <v>2</v>
       </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -4382,27 +4601,30 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
+      <c r="V85">
+        <v>1</v>
+      </c>
       <c r="Y85">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4412,26 +4634,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4439,6 +4661,9 @@
       <c r="Q86">
         <v>5</v>
       </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
       <c r="Y86">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4448,26 +4673,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4475,6 +4700,9 @@
       <c r="Q87">
         <v>5</v>
       </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
       <c r="Y87">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4484,26 +4712,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4511,6 +4739,9 @@
       <c r="Q88">
         <v>5</v>
       </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
       <c r="Y88">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4520,26 +4751,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4547,6 +4778,9 @@
       <c r="Q89">
         <v>5</v>
       </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
       <c r="Y89">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4556,26 +4790,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -4583,6 +4817,9 @@
       <c r="Q90">
         <v>5</v>
       </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
       <c r="Y90">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4592,27 +4829,30 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
+      <c r="V91">
+        <v>1</v>
+      </c>
       <c r="Y91">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4622,29 +4862,32 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
       </c>
       <c r="Y92">
         <f t="shared" si="1"/>
@@ -4655,21 +4898,24 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
+      <c r="V93">
+        <v>1</v>
+      </c>
       <c r="Y93">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4679,21 +4925,24 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
+      <c r="V94">
+        <v>1</v>
+      </c>
       <c r="Y94">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4703,21 +4952,24 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
+      <c r="V95">
+        <v>1</v>
+      </c>
       <c r="Y95">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4727,21 +4979,24 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
+      <c r="V96">
+        <v>1</v>
+      </c>
       <c r="Y96">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4751,21 +5006,24 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
+      <c r="V97">
+        <v>1</v>
+      </c>
       <c r="Y97">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4775,21 +5033,24 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
+      <c r="V98">
+        <v>1</v>
+      </c>
       <c r="Y98">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4799,21 +5060,24 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
+      <c r="V99">
+        <v>1</v>
+      </c>
       <c r="Y99">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4823,21 +5087,24 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
+      <c r="V100">
+        <v>1</v>
+      </c>
       <c r="Y100">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4847,21 +5114,24 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
+      <c r="V101">
+        <v>1</v>
+      </c>
       <c r="Y101">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4871,27 +5141,35 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
+      <c r="V102">
+        <v>1</v>
+      </c>
       <c r="Y102">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Z102">
         <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4905,39 +5183,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -4962,431 +5632,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V89" sqref="V89"/>
+      <pane ySplit="10" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1907,26 +1907,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1946,26 +1946,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1982,26 +1982,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="V15">
         <v>2</v>
@@ -2015,26 +2015,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2054,26 +2054,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2087,26 +2087,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
@@ -2126,26 +2126,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2162,26 +2162,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2201,26 +2201,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2240,32 +2240,32 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
@@ -2276,26 +2276,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2315,26 +2315,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2343,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
@@ -2354,26 +2354,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2387,26 +2387,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2420,26 +2420,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2456,26 +2456,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2492,26 +2492,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2525,26 +2525,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2561,26 +2561,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>1</v>
@@ -2594,26 +2594,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2633,26 +2633,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2672,26 +2672,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2705,26 +2705,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>1</v>
@@ -2738,26 +2738,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2774,26 +2774,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2810,26 +2810,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2846,26 +2846,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2885,26 +2885,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2921,26 +2921,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -2960,26 +2960,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -2999,26 +2999,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3038,26 +3038,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3066,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y44">
         <f t="shared" si="0"/>
@@ -3077,26 +3077,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3116,26 +3116,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3152,26 +3152,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3188,26 +3188,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3221,26 +3221,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3257,26 +3257,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3293,32 +3293,32 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y51">
         <f t="shared" si="0"/>
@@ -3329,26 +3329,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3365,26 +3365,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3404,26 +3404,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3443,26 +3443,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3479,26 +3479,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3518,26 +3518,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3557,26 +3557,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3593,26 +3593,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3632,26 +3632,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3671,26 +3671,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3710,26 +3710,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3749,26 +3749,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3788,26 +3788,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3827,26 +3827,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -3866,26 +3866,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -3902,26 +3902,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -3941,26 +3941,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3980,26 +3980,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4019,26 +4019,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4058,26 +4058,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4097,26 +4097,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4136,26 +4136,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4175,26 +4175,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4214,26 +4214,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4253,26 +4253,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4292,26 +4292,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4331,26 +4331,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4367,26 +4367,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4406,26 +4406,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4445,26 +4445,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4484,26 +4484,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4523,26 +4523,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4562,26 +4562,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4601,26 +4601,26 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>1</v>
@@ -4634,26 +4634,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4673,26 +4673,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4701,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y87">
         <f t="shared" si="1"/>
@@ -4712,26 +4712,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4751,26 +4751,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4790,26 +4790,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -4829,26 +4829,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>1</v>
@@ -4862,26 +4862,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -4898,20 +4898,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -4925,20 +4925,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -4952,20 +4952,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -4979,20 +4979,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5006,20 +5006,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5060,20 +5060,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5087,20 +5087,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5114,20 +5114,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5141,20 +5141,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5183,6 +5183,464 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="E102:G102"/>
@@ -5207,464 +5665,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45:D45"/>
+      <pane ySplit="10" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1907,26 +1907,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1946,26 +1946,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1982,26 +1982,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="V15">
         <v>2</v>
@@ -2015,26 +2015,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
@@ -2054,26 +2054,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2087,26 +2087,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2126,26 +2126,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2162,26 +2162,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2201,26 +2201,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <f t="shared" si="0"/>
@@ -2240,26 +2240,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2276,26 +2276,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2315,26 +2315,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2354,26 +2354,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2387,26 +2387,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2420,26 +2420,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2456,26 +2456,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2492,26 +2492,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2525,26 +2525,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2561,29 +2561,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="V31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
@@ -2594,26 +2594,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2633,26 +2633,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2661,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <f t="shared" si="0"/>
@@ -2672,26 +2672,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2705,29 +2705,29 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="V35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
         <f t="shared" si="0"/>
@@ -2738,26 +2738,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2774,32 +2774,32 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37">
         <f t="shared" si="0"/>
@@ -2810,26 +2810,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2846,26 +2846,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2885,26 +2885,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2921,26 +2921,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -2960,26 +2960,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -2999,26 +2999,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3038,26 +3038,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3077,26 +3077,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3116,26 +3116,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3152,32 +3152,32 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y47">
         <f t="shared" si="0"/>
@@ -3188,26 +3188,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3221,26 +3221,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3257,26 +3257,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3293,26 +3293,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3329,26 +3329,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3365,26 +3365,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3404,26 +3404,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3443,26 +3443,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3479,26 +3479,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3518,26 +3518,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3557,32 +3557,32 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y58">
         <f t="shared" si="0"/>
@@ -3593,26 +3593,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3632,26 +3632,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3671,26 +3671,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3710,26 +3710,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3749,26 +3749,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y63">
         <f t="shared" si="0"/>
@@ -3788,26 +3788,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3827,26 +3827,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -3866,26 +3866,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -3902,26 +3902,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>5</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y67">
         <f t="shared" si="0"/>
@@ -3941,26 +3941,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3980,26 +3980,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4008,7 +4008,7 @@
         <v>5</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y69">
         <f t="shared" si="0"/>
@@ -4019,26 +4019,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4047,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y70">
         <f t="shared" si="0"/>
@@ -4058,26 +4058,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4097,26 +4097,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4136,26 +4136,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4175,26 +4175,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4203,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y74">
         <f t="shared" si="0"/>
@@ -4214,26 +4214,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <f t="shared" si="0"/>
@@ -4253,26 +4253,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4292,26 +4292,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4331,26 +4331,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4367,26 +4367,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4406,26 +4406,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4445,26 +4445,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4473,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y81">
         <f t="shared" si="1"/>
@@ -4484,26 +4484,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4523,26 +4523,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4562,26 +4562,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4601,29 +4601,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="V85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <f t="shared" si="1"/>
@@ -4634,26 +4634,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4673,26 +4673,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4712,26 +4712,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4751,26 +4751,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4790,26 +4790,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -4829,29 +4829,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="V91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y91">
         <f t="shared" si="1"/>
@@ -4862,26 +4862,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -4898,20 +4898,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -4925,20 +4925,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -4952,20 +4952,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -4979,20 +4979,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5006,20 +5006,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5060,20 +5060,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5087,20 +5087,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5114,20 +5114,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5141,20 +5141,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5183,39 +5183,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -5240,431 +5632,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$10:$Z$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$O$102</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -871,26 +871,26 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -901,7 +901,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD91"/>
+      <pane ySplit="10" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1907,26 +1907,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1946,26 +1946,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1982,26 +1982,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="V15">
         <v>2</v>
@@ -2015,26 +2015,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2054,26 +2054,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2087,26 +2087,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2126,26 +2126,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2162,26 +2162,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2201,26 +2201,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2240,26 +2240,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2276,26 +2276,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2315,26 +2315,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2354,26 +2354,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2387,26 +2387,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2420,26 +2420,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2456,26 +2456,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2492,26 +2492,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2525,26 +2525,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2561,26 +2561,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>2</v>
@@ -2594,26 +2594,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2633,26 +2633,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2672,26 +2672,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2705,26 +2705,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>2</v>
@@ -2738,26 +2738,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2774,26 +2774,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2810,26 +2810,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2846,26 +2846,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2876,35 +2876,38 @@
       <c r="V39">
         <v>2</v>
       </c>
+      <c r="W39">
+        <v>17</v>
+      </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Z39">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2921,26 +2924,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -2960,26 +2963,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -2999,26 +3002,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3029,35 +3032,38 @@
       <c r="V43">
         <v>2</v>
       </c>
+      <c r="W43">
+        <v>14</v>
+      </c>
       <c r="Y43">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Z43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3077,26 +3083,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3107,35 +3113,38 @@
       <c r="V45">
         <v>2</v>
       </c>
+      <c r="W45">
+        <v>15</v>
+      </c>
       <c r="Y45">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Z45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3152,26 +3161,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3179,35 +3188,38 @@
       <c r="V47">
         <v>2</v>
       </c>
+      <c r="W47">
+        <v>16</v>
+      </c>
       <c r="Y47">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Z47">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3221,26 +3233,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3257,26 +3269,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3293,26 +3305,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3320,35 +3332,38 @@
       <c r="V51">
         <v>2</v>
       </c>
+      <c r="W51">
+        <v>17</v>
+      </c>
       <c r="Y51">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Z51">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3365,26 +3380,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3404,26 +3419,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3443,26 +3458,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3479,26 +3494,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3518,26 +3533,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3557,26 +3572,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3593,26 +3608,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3632,26 +3647,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3671,26 +3686,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3710,26 +3725,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3749,26 +3764,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3788,26 +3803,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3827,26 +3842,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -3866,26 +3881,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -3902,26 +3917,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -3941,26 +3956,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3980,26 +3995,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4019,26 +4034,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4058,26 +4073,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4097,26 +4112,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4136,26 +4151,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4175,26 +4190,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4214,26 +4229,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4253,26 +4268,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4292,26 +4307,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4331,26 +4346,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4367,26 +4382,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4406,26 +4421,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4445,26 +4460,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4484,26 +4499,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4523,26 +4538,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4562,26 +4577,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4601,26 +4616,26 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>2</v>
@@ -4634,26 +4649,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4673,26 +4688,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4712,26 +4727,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4751,26 +4766,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4790,26 +4805,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -4829,26 +4844,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>2</v>
@@ -4862,26 +4877,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -4898,20 +4913,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -4925,20 +4940,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -4952,20 +4967,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -4979,20 +4994,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5006,20 +5021,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5033,20 +5048,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5060,20 +5075,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5087,20 +5102,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5114,20 +5129,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5141,20 +5156,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5183,6 +5198,464 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="E102:G102"/>
@@ -5207,464 +5680,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W51" sqref="W51"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1907,26 +1907,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1937,35 +1937,38 @@
       <c r="V13">
         <v>2</v>
       </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Z13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1982,59 +1985,65 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
+      <c r="P15">
+        <v>10</v>
+      </c>
       <c r="V15">
         <v>2</v>
       </c>
+      <c r="X15">
+        <v>30</v>
+      </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="Z15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2054,26 +2063,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2087,26 +2096,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2126,26 +2135,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2162,26 +2171,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2201,26 +2210,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2240,26 +2249,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2276,26 +2285,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2315,26 +2324,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2345,35 +2354,38 @@
       <c r="V24">
         <v>2</v>
       </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Z24">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2387,26 +2399,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2420,26 +2432,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2456,26 +2468,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2492,26 +2504,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2525,26 +2537,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2561,26 +2573,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>2</v>
@@ -2594,26 +2606,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2633,26 +2645,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2672,26 +2684,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2705,26 +2717,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>2</v>
@@ -2738,26 +2750,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2774,26 +2786,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2810,26 +2822,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2846,26 +2858,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2888,26 +2900,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2924,26 +2936,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -2963,26 +2975,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3002,26 +3014,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3044,26 +3056,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3083,26 +3095,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3125,26 +3137,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3161,26 +3173,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3200,26 +3212,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3233,26 +3245,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3269,26 +3281,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3305,26 +3317,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3344,26 +3356,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3380,26 +3392,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3419,26 +3431,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3458,26 +3470,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3494,26 +3506,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3533,26 +3545,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3572,26 +3584,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3608,26 +3620,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3647,26 +3659,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3686,26 +3698,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3725,26 +3737,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3764,26 +3776,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3803,26 +3815,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3842,26 +3854,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -3881,26 +3893,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -3917,26 +3929,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -3956,26 +3968,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3995,26 +4007,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4034,26 +4046,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4073,26 +4085,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4112,26 +4124,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4151,26 +4163,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4190,26 +4202,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4229,26 +4241,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4268,26 +4280,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4307,26 +4319,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4346,26 +4358,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4382,26 +4394,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4421,26 +4433,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4460,26 +4472,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4499,26 +4511,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4538,26 +4550,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4577,26 +4589,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4616,26 +4628,26 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>2</v>
@@ -4649,26 +4661,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4688,26 +4700,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4727,26 +4739,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4766,26 +4778,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4796,35 +4808,38 @@
       <c r="V89">
         <v>2</v>
       </c>
+      <c r="X89">
+        <v>10</v>
+      </c>
       <c r="Y89">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Z89">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -4844,26 +4859,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>2</v>
@@ -4877,26 +4892,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -4913,20 +4928,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -4940,20 +4955,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -4967,20 +4982,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -4994,20 +5009,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5021,20 +5036,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5048,20 +5063,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5075,20 +5090,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5102,20 +5117,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5129,20 +5144,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5156,20 +5171,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5198,39 +5213,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -5255,431 +5662,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,62 +1871,68 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
       </c>
+      <c r="U12">
+        <v>17</v>
+      </c>
       <c r="V12">
         <v>2</v>
+      </c>
+      <c r="W12">
+        <v>18</v>
       </c>
       <c r="Y12">
         <f t="shared" ref="Y12:Y75" si="0">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="Z12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1949,101 +1955,113 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
       </c>
+      <c r="U14">
+        <v>17</v>
+      </c>
       <c r="V14">
         <v>1</v>
       </c>
+      <c r="W14">
+        <v>18</v>
+      </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
       </c>
+      <c r="U15">
+        <v>17</v>
+      </c>
       <c r="V15">
         <v>2</v>
+      </c>
+      <c r="W15">
+        <v>14</v>
       </c>
       <c r="X15">
         <v>30</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="Z15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2051,38 +2069,44 @@
       <c r="Q16">
         <v>2</v>
       </c>
+      <c r="U16">
+        <v>17</v>
+      </c>
       <c r="V16">
         <v>2</v>
       </c>
+      <c r="W16">
+        <v>17</v>
+      </c>
       <c r="Y16">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="Z16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2096,26 +2120,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2123,38 +2147,47 @@
       <c r="Q18">
         <v>5</v>
       </c>
+      <c r="U18">
+        <v>19</v>
+      </c>
       <c r="V18">
         <v>2</v>
       </c>
+      <c r="W18">
+        <v>19</v>
+      </c>
+      <c r="X18">
+        <v>30</v>
+      </c>
       <c r="Y18">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="Z18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2171,26 +2204,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2210,26 +2243,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2237,38 +2270,44 @@
       <c r="Q21">
         <v>5</v>
       </c>
+      <c r="U21">
+        <v>17</v>
+      </c>
       <c r="V21">
         <v>2</v>
       </c>
+      <c r="W21">
+        <v>16</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="Z21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2285,26 +2324,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2324,26 +2363,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2366,26 +2405,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2399,26 +2438,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2432,26 +2471,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2459,35 +2498,38 @@
       <c r="V27">
         <v>1</v>
       </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Z27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2504,26 +2546,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2537,26 +2579,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2573,59 +2615,62 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>2</v>
       </c>
+      <c r="W31">
+        <v>18</v>
+      </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z31">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2645,26 +2690,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2684,26 +2729,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2717,26 +2762,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>2</v>
@@ -2750,26 +2795,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2786,26 +2831,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2822,26 +2867,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2858,26 +2903,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2900,62 +2945,68 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
       </c>
+      <c r="U40">
+        <v>18</v>
+      </c>
       <c r="V40">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>13</v>
       </c>
       <c r="Y40">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="Z40">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -2963,38 +3014,47 @@
       <c r="Q41">
         <v>2</v>
       </c>
+      <c r="U41">
+        <v>17</v>
+      </c>
       <c r="V41">
         <v>2</v>
       </c>
+      <c r="W41">
+        <v>20</v>
+      </c>
+      <c r="X41">
+        <v>30</v>
+      </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="Z41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3002,38 +3062,44 @@
       <c r="Q42">
         <v>5</v>
       </c>
+      <c r="U42">
+        <v>19</v>
+      </c>
       <c r="V42">
         <v>2</v>
       </c>
+      <c r="W42">
+        <v>18</v>
+      </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="Z42">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3056,26 +3122,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3083,38 +3149,44 @@
       <c r="Q44">
         <v>5</v>
       </c>
+      <c r="U44">
+        <v>18</v>
+      </c>
       <c r="V44">
         <v>2</v>
       </c>
+      <c r="W44">
+        <v>11</v>
+      </c>
       <c r="Y44">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="Z44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3122,41 +3194,47 @@
       <c r="Q45">
         <v>5</v>
       </c>
+      <c r="U45">
+        <v>17</v>
+      </c>
       <c r="V45">
         <v>2</v>
       </c>
       <c r="W45">
         <v>15</v>
       </c>
+      <c r="X45">
+        <v>30</v>
+      </c>
       <c r="Y45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="Z45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3173,26 +3251,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3212,26 +3290,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3245,26 +3323,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3281,66 +3359,75 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
       </c>
+      <c r="U50">
+        <v>16</v>
+      </c>
       <c r="V50">
         <v>2</v>
       </c>
+      <c r="W50">
+        <v>14</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Z50">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
       </c>
+      <c r="U51">
+        <v>16</v>
+      </c>
       <c r="V51">
         <v>2</v>
       </c>
@@ -3349,33 +3436,33 @@
       </c>
       <c r="Y51">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="Z51">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3392,26 +3479,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3419,38 +3506,44 @@
       <c r="Q53">
         <v>5</v>
       </c>
+      <c r="U53">
+        <v>17</v>
+      </c>
       <c r="V53">
         <v>1</v>
       </c>
+      <c r="W53">
+        <v>17</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="Z53">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3470,26 +3563,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3506,26 +3599,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3545,26 +3638,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3584,26 +3677,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3620,26 +3713,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3647,38 +3740,44 @@
       <c r="Q59">
         <v>5</v>
       </c>
+      <c r="U59">
+        <v>17</v>
+      </c>
       <c r="V59">
         <v>1</v>
       </c>
+      <c r="W59">
+        <v>12</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="Z59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3698,26 +3797,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3737,26 +3836,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3776,26 +3875,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3803,38 +3902,44 @@
       <c r="Q63">
         <v>5</v>
       </c>
+      <c r="U63">
+        <v>17</v>
+      </c>
       <c r="V63">
         <v>2</v>
       </c>
+      <c r="W63">
+        <v>20</v>
+      </c>
       <c r="Y63">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="Z63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3842,38 +3947,44 @@
       <c r="Q64">
         <v>2</v>
       </c>
+      <c r="U64">
+        <v>17</v>
+      </c>
       <c r="V64">
         <v>2</v>
       </c>
+      <c r="W64">
+        <v>14</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="Z64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -3881,74 +3992,86 @@
       <c r="Q65">
         <v>5</v>
       </c>
+      <c r="U65">
+        <v>17</v>
+      </c>
       <c r="V65">
         <v>2</v>
       </c>
+      <c r="W65">
+        <v>18</v>
+      </c>
       <c r="Y65">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Z65">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
       </c>
+      <c r="U66">
+        <v>18</v>
+      </c>
       <c r="V66">
         <v>1</v>
       </c>
+      <c r="W66">
+        <v>14</v>
+      </c>
       <c r="Y66">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="Z66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -3968,26 +4091,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -3995,38 +4118,44 @@
       <c r="Q68">
         <v>2</v>
       </c>
+      <c r="U68">
+        <v>19</v>
+      </c>
       <c r="V68">
         <v>2</v>
       </c>
+      <c r="W68">
+        <v>15</v>
+      </c>
       <c r="Y68">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="Z68">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4034,38 +4163,44 @@
       <c r="Q69">
         <v>5</v>
       </c>
+      <c r="U69">
+        <v>17</v>
+      </c>
       <c r="V69">
         <v>2</v>
       </c>
+      <c r="W69">
+        <v>20</v>
+      </c>
       <c r="Y69">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="Z69">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4085,26 +4220,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4112,38 +4247,44 @@
       <c r="Q71">
         <v>2</v>
       </c>
+      <c r="U71">
+        <v>17</v>
+      </c>
       <c r="V71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>12</v>
       </c>
       <c r="Y71">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Z71">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4151,38 +4292,44 @@
       <c r="Q72">
         <v>5</v>
       </c>
+      <c r="U72">
+        <v>17</v>
+      </c>
       <c r="V72">
         <v>2</v>
       </c>
+      <c r="W72">
+        <v>20</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="Z72">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4193,35 +4340,38 @@
       <c r="V73">
         <v>2</v>
       </c>
+      <c r="W73">
+        <v>20</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4229,38 +4379,44 @@
       <c r="Q74">
         <v>5</v>
       </c>
+      <c r="U74">
+        <v>17</v>
+      </c>
       <c r="V74">
         <v>2</v>
       </c>
+      <c r="W74">
+        <v>20</v>
+      </c>
       <c r="Y74">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="Z74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4268,38 +4424,44 @@
       <c r="Q75">
         <v>2</v>
       </c>
+      <c r="U75">
+        <v>17</v>
+      </c>
       <c r="V75">
         <v>2</v>
       </c>
+      <c r="W75">
+        <v>19</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="Z75">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4319,26 +4481,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4346,38 +4508,44 @@
       <c r="Q77">
         <v>5</v>
       </c>
+      <c r="U77">
+        <v>17</v>
+      </c>
       <c r="V77">
         <v>2</v>
+      </c>
+      <c r="W77">
+        <v>19</v>
       </c>
       <c r="Y77">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="Z77">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4385,35 +4553,38 @@
       <c r="V78">
         <v>1</v>
       </c>
+      <c r="W78">
+        <v>19</v>
+      </c>
       <c r="Y78">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="Z78">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4421,38 +4592,44 @@
       <c r="Q79">
         <v>2</v>
       </c>
+      <c r="U79">
+        <v>17</v>
+      </c>
       <c r="V79">
         <v>1</v>
       </c>
+      <c r="W79">
+        <v>18</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4460,38 +4637,44 @@
       <c r="Q80">
         <v>5</v>
       </c>
+      <c r="U80">
+        <v>17</v>
+      </c>
       <c r="V80">
         <v>2</v>
+      </c>
+      <c r="W80">
+        <v>20</v>
       </c>
       <c r="Y80">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="Z80">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4499,38 +4682,44 @@
       <c r="Q81">
         <v>5</v>
       </c>
+      <c r="U81">
+        <v>17</v>
+      </c>
       <c r="V81">
         <v>2</v>
+      </c>
+      <c r="W81">
+        <v>20</v>
       </c>
       <c r="Y81">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="Z81">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4538,38 +4727,44 @@
       <c r="Q82">
         <v>5</v>
       </c>
+      <c r="U82">
+        <v>19</v>
+      </c>
       <c r="V82">
         <v>2</v>
+      </c>
+      <c r="W82">
+        <v>16</v>
       </c>
       <c r="Y82">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="Z82">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4589,26 +4784,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4616,38 +4811,44 @@
       <c r="Q84">
         <v>2</v>
       </c>
+      <c r="U84">
+        <v>17</v>
+      </c>
       <c r="V84">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>12</v>
       </c>
       <c r="Y84">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="Z84">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>2</v>
@@ -4661,26 +4862,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4700,26 +4901,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4727,38 +4928,44 @@
       <c r="Q87">
         <v>5</v>
       </c>
+      <c r="U87">
+        <v>17</v>
+      </c>
       <c r="V87">
         <v>2</v>
+      </c>
+      <c r="W87">
+        <v>17</v>
       </c>
       <c r="Y87">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="Z87">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4778,26 +4985,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -4805,41 +5012,47 @@
       <c r="Q89">
         <v>5</v>
       </c>
+      <c r="U89">
+        <v>17</v>
+      </c>
       <c r="V89">
         <v>2</v>
+      </c>
+      <c r="W89">
+        <v>19</v>
       </c>
       <c r="X89">
         <v>10</v>
       </c>
       <c r="Y89">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="Z89">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -4859,26 +5072,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>2</v>
@@ -4892,26 +5105,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -4928,20 +5141,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -4955,20 +5168,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -4982,20 +5195,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -5009,20 +5222,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5036,20 +5249,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5063,20 +5276,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5090,20 +5303,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5117,20 +5330,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5144,20 +5357,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5171,20 +5384,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5213,6 +5426,464 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="E102:G102"/>
@@ -5237,464 +5908,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1913,26 +1913,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1955,26 +1955,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1997,26 +1997,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
@@ -2042,26 +2042,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2087,26 +2087,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2120,26 +2120,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2168,26 +2168,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2204,26 +2204,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2243,26 +2243,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2288,26 +2288,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2324,26 +2324,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2363,26 +2363,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2405,26 +2405,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2438,26 +2438,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2471,26 +2471,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2510,26 +2510,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2546,26 +2546,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2579,26 +2579,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2615,26 +2615,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>2</v>
@@ -2651,26 +2651,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2690,26 +2690,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2729,26 +2729,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2762,26 +2762,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>2</v>
@@ -2795,26 +2795,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2831,26 +2831,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2867,26 +2867,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2903,26 +2903,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2945,26 +2945,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2987,26 +2987,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -3035,26 +3035,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3080,26 +3080,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3122,26 +3122,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3167,26 +3167,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3215,26 +3215,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3251,26 +3251,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3290,26 +3290,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3323,26 +3323,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3359,26 +3359,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3401,26 +3401,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3443,26 +3443,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3479,26 +3479,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3524,26 +3524,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3563,26 +3563,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3599,26 +3599,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3638,26 +3638,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3677,26 +3677,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3713,26 +3713,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3758,26 +3758,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3797,26 +3797,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3836,26 +3836,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3875,26 +3875,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3911,35 +3911,38 @@
       <c r="W63">
         <v>20</v>
       </c>
+      <c r="X63">
+        <v>30</v>
+      </c>
       <c r="Y63">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="Z63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3965,26 +3968,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -4010,26 +4013,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -4052,26 +4055,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -4082,35 +4085,38 @@
       <c r="V67">
         <v>2</v>
       </c>
+      <c r="X67">
+        <v>30</v>
+      </c>
       <c r="Y67">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Z67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -4136,26 +4142,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4172,35 +4178,38 @@
       <c r="W69">
         <v>20</v>
       </c>
+      <c r="X69">
+        <v>30</v>
+      </c>
       <c r="Y69">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Z69">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4220,26 +4229,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4265,26 +4274,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4301,35 +4310,38 @@
       <c r="W72">
         <v>20</v>
       </c>
+      <c r="X72">
+        <v>30</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="Z72">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4352,26 +4364,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4388,35 +4400,38 @@
       <c r="W74">
         <v>20</v>
       </c>
+      <c r="X74">
+        <v>30</v>
+      </c>
       <c r="Y74">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="Z74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4442,26 +4457,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4472,35 +4487,38 @@
       <c r="V76">
         <v>2</v>
       </c>
+      <c r="X76">
+        <v>30</v>
+      </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y102" si="1">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="Z76">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4526,26 +4544,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4565,26 +4583,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4610,26 +4628,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4646,35 +4664,38 @@
       <c r="W80">
         <v>20</v>
       </c>
+      <c r="X80">
+        <v>30</v>
+      </c>
       <c r="Y80">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Z80">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4691,35 +4712,38 @@
       <c r="W81">
         <v>20</v>
       </c>
+      <c r="X81">
+        <v>30</v>
+      </c>
       <c r="Y81">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Z81">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4745,26 +4769,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4784,26 +4808,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4829,26 +4853,26 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>2</v>
@@ -4862,26 +4886,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4892,35 +4916,38 @@
       <c r="V86">
         <v>1</v>
       </c>
+      <c r="X86">
+        <v>30</v>
+      </c>
       <c r="Y86">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="Z86">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4946,26 +4973,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -4985,26 +5012,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -5033,26 +5060,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -5072,26 +5099,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>2</v>
@@ -5105,26 +5132,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -5141,20 +5168,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -5168,20 +5195,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -5195,20 +5222,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -5222,20 +5249,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5249,20 +5276,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5276,20 +5303,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5303,20 +5330,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5330,20 +5357,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5357,20 +5384,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5384,20 +5411,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5426,39 +5453,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -5483,431 +5902,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X74" sqref="X74"/>
+      <pane ySplit="10" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X46" sqref="X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1913,26 +1913,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1955,26 +1955,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -1988,35 +1988,38 @@
       <c r="W14">
         <v>18</v>
       </c>
+      <c r="X14">
+        <v>30</v>
+      </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
@@ -2042,26 +2045,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2087,26 +2090,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2120,26 +2123,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2168,26 +2171,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2204,26 +2207,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2243,26 +2246,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2288,26 +2291,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2324,26 +2327,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2363,26 +2366,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2405,26 +2408,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2438,26 +2441,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2471,26 +2474,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2510,26 +2513,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2546,26 +2549,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2579,26 +2582,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2615,26 +2618,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>2</v>
@@ -2651,26 +2654,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2690,26 +2693,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2729,26 +2732,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2762,59 +2765,62 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>2</v>
       </c>
+      <c r="X35">
+        <v>30</v>
+      </c>
       <c r="Y35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Z35">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2831,26 +2837,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2867,26 +2873,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2903,26 +2909,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2945,26 +2951,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2987,26 +2993,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -3035,26 +3041,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3080,26 +3086,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3122,26 +3128,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3167,26 +3173,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3215,26 +3221,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3242,35 +3248,38 @@
       <c r="V46">
         <v>1</v>
       </c>
+      <c r="X46">
+        <v>30</v>
+      </c>
       <c r="Y46">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="Z46">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3290,26 +3299,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3323,26 +3332,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3359,26 +3368,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3401,26 +3410,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3443,26 +3452,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3479,26 +3488,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3524,26 +3533,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3563,26 +3572,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3599,26 +3608,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3638,26 +3647,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3677,26 +3686,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3713,26 +3722,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3758,26 +3767,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3797,26 +3806,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3836,26 +3845,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3875,26 +3884,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3923,26 +3932,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3968,26 +3977,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -4013,26 +4022,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -4055,26 +4064,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -4097,26 +4106,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -4142,26 +4151,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4190,26 +4199,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4229,26 +4238,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4274,26 +4283,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4322,26 +4331,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4355,35 +4364,38 @@
       <c r="W73">
         <v>20</v>
       </c>
+      <c r="X73">
+        <v>30</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="Z73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4412,26 +4424,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4457,26 +4469,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4499,26 +4511,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4535,35 +4547,38 @@
       <c r="W77">
         <v>19</v>
       </c>
+      <c r="X77">
+        <v>30</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z77">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4574,35 +4589,38 @@
       <c r="W78">
         <v>19</v>
       </c>
+      <c r="X78">
+        <v>30</v>
+      </c>
       <c r="Y78">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="Z78">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4619,35 +4637,38 @@
       <c r="W79">
         <v>18</v>
       </c>
+      <c r="X79">
+        <v>30</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4676,26 +4697,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4724,26 +4745,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4769,26 +4790,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4799,35 +4820,38 @@
       <c r="V83">
         <v>1</v>
       </c>
+      <c r="X83">
+        <v>30</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z83">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4853,59 +4877,62 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>2</v>
       </c>
+      <c r="X85">
+        <v>30</v>
+      </c>
       <c r="Y85">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Z85">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4928,26 +4955,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4973,26 +5000,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -5012,26 +5039,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -5060,26 +5087,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -5099,26 +5126,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>2</v>
@@ -5132,26 +5159,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -5168,20 +5195,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -5195,20 +5222,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -5222,20 +5249,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -5249,20 +5276,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5276,20 +5303,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5303,20 +5330,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5330,20 +5357,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5357,20 +5384,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5384,20 +5411,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5411,20 +5438,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5453,6 +5480,464 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="E102:G102"/>
@@ -5477,464 +5962,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X46" sqref="X46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X87" sqref="X87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1805,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1871,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1913,26 +1913,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1955,30 +1955,33 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
       </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
       <c r="U14">
         <v>17</v>
       </c>
@@ -1993,33 +1996,33 @@
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
@@ -2045,26 +2048,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2090,26 +2093,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2123,26 +2126,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2171,26 +2174,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2207,26 +2210,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2246,26 +2249,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2291,26 +2294,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2318,35 +2321,38 @@
       <c r="V22">
         <v>2</v>
       </c>
+      <c r="X22">
+        <v>30</v>
+      </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Z22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2357,35 +2363,38 @@
       <c r="V23">
         <v>1</v>
       </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
       <c r="Y23">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Z23">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2408,26 +2417,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2441,26 +2450,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2474,26 +2483,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2504,35 +2513,38 @@
       <c r="W27">
         <v>13</v>
       </c>
+      <c r="X27">
+        <v>30</v>
+      </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Z27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2549,26 +2561,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2582,26 +2594,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2618,26 +2630,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="V31">
         <v>2</v>
@@ -2654,26 +2666,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2693,26 +2705,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2732,26 +2744,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="V34">
         <v>1</v>
@@ -2765,26 +2777,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="V35">
         <v>2</v>
@@ -2801,26 +2813,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2828,35 +2840,38 @@
       <c r="V36">
         <v>2</v>
       </c>
+      <c r="X36">
+        <v>30</v>
+      </c>
       <c r="Y36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Z36">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2873,26 +2888,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -2909,26 +2924,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2942,35 +2957,38 @@
       <c r="W39">
         <v>17</v>
       </c>
+      <c r="X39">
+        <v>20</v>
+      </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="Z39">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -2984,35 +3002,38 @@
       <c r="W40">
         <v>13</v>
       </c>
+      <c r="X40">
+        <v>20</v>
+      </c>
       <c r="Y40">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="Z40">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -3041,26 +3062,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3086,26 +3107,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3119,35 +3140,38 @@
       <c r="W43">
         <v>14</v>
       </c>
+      <c r="X43">
+        <v>20</v>
+      </c>
       <c r="Y43">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Z43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3164,35 +3188,38 @@
       <c r="W44">
         <v>11</v>
       </c>
+      <c r="X44">
+        <v>30</v>
+      </c>
       <c r="Y44">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3221,26 +3248,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3260,26 +3287,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3299,26 +3326,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3332,26 +3359,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3368,26 +3395,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3410,26 +3437,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3452,26 +3479,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3488,26 +3515,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3533,26 +3560,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3563,35 +3590,38 @@
       <c r="V54">
         <v>1</v>
       </c>
+      <c r="X54">
+        <v>30</v>
+      </c>
       <c r="Y54">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="Z54">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3599,35 +3629,38 @@
       <c r="V55">
         <v>1</v>
       </c>
+      <c r="X55">
+        <v>30</v>
+      </c>
       <c r="Y55">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Z55">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3638,35 +3671,38 @@
       <c r="V56">
         <v>1</v>
       </c>
+      <c r="X56">
+        <v>30</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z56">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3686,26 +3722,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3722,26 +3758,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3767,26 +3803,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3806,26 +3842,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3845,26 +3881,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3884,26 +3920,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3932,26 +3968,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -3968,35 +4004,38 @@
       <c r="W64">
         <v>14</v>
       </c>
+      <c r="X64">
+        <v>30</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="Z64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -4022,26 +4061,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -4064,26 +4103,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -4106,26 +4145,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -4151,26 +4190,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4199,26 +4238,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4238,26 +4277,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4283,26 +4322,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4331,26 +4370,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4376,26 +4415,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4424,26 +4463,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4469,26 +4508,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4511,26 +4550,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4559,26 +4598,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4601,26 +4640,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4649,26 +4688,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4697,26 +4736,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4745,26 +4784,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4781,35 +4820,38 @@
       <c r="W82">
         <v>16</v>
       </c>
+      <c r="X82">
+        <v>30</v>
+      </c>
       <c r="Y82">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="Z82">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4832,26 +4874,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4877,26 +4919,26 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="V85">
         <v>2</v>
@@ -4913,26 +4955,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4955,26 +4997,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -4991,35 +5033,38 @@
       <c r="W87">
         <v>17</v>
       </c>
+      <c r="X87">
+        <v>30</v>
+      </c>
       <c r="Y87">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="Z87">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -5039,26 +5084,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -5087,26 +5132,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -5126,26 +5171,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="V91">
         <v>2</v>
@@ -5159,26 +5204,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -5195,20 +5240,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -5222,20 +5267,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -5249,20 +5294,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -5276,20 +5321,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5303,20 +5348,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5330,20 +5375,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5357,20 +5402,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5384,20 +5429,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5411,20 +5456,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5438,20 +5483,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5480,39 +5525,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -5537,431 +5974,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$10:$Z$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$O$102</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1522,8 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X87" sqref="X87"/>
+      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1541,32 +1541,30 @@
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="15" width="0.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="2.5703125" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1585,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1607,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1629,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1673,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1739,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,35 +1803,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1871,26 +1869,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1906,33 +1904,33 @@
       </c>
       <c r="Y12">
         <f t="shared" ref="Y12:Y75" si="0">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1940,41 +1938,47 @@
       <c r="Q13">
         <v>2</v>
       </c>
+      <c r="U13">
+        <v>16</v>
+      </c>
       <c r="V13">
         <v>2</v>
+      </c>
+      <c r="W13">
+        <v>19</v>
       </c>
       <c r="X13">
         <v>10</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="Z13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -2003,26 +2007,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
@@ -2048,26 +2052,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2086,33 +2090,33 @@
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="Z16">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2126,26 +2130,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2174,26 +2178,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2210,26 +2214,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2240,35 +2244,38 @@
       <c r="V20">
         <v>2</v>
       </c>
+      <c r="W20">
+        <v>18</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z20">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2294,65 +2301,71 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
       </c>
+      <c r="U22">
+        <v>16</v>
+      </c>
       <c r="V22">
         <v>2</v>
+      </c>
+      <c r="W22">
+        <v>17</v>
       </c>
       <c r="X22">
         <v>30</v>
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2375,26 +2388,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2402,41 +2415,47 @@
       <c r="Q24">
         <v>5</v>
       </c>
+      <c r="U24">
+        <v>16</v>
+      </c>
       <c r="V24">
         <v>2</v>
+      </c>
+      <c r="W24">
+        <v>17</v>
       </c>
       <c r="X24">
         <v>10</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="Z24">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2450,26 +2469,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2483,26 +2502,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2525,26 +2544,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2561,26 +2580,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2594,63 +2613,72 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
       </c>
+      <c r="U30">
+        <v>16</v>
+      </c>
       <c r="V30">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>16</v>
       </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="Z30">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
+      <c r="U31">
+        <v>17</v>
+      </c>
       <c r="V31">
         <v>2</v>
       </c>
@@ -2659,33 +2687,33 @@
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="Z31">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2696,35 +2724,38 @@
       <c r="V32">
         <v>2</v>
       </c>
+      <c r="W32">
+        <v>18</v>
+      </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z32">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2735,215 +2766,248 @@
       <c r="V33">
         <v>2</v>
       </c>
+      <c r="W33">
+        <v>19</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Z33">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
+      <c r="U34">
+        <v>16</v>
+      </c>
       <c r="V34">
         <v>1</v>
       </c>
+      <c r="W34">
+        <v>18</v>
+      </c>
       <c r="Y34">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="Z34">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
+      <c r="U35">
+        <v>17</v>
+      </c>
       <c r="V35">
         <v>2</v>
+      </c>
+      <c r="W35">
+        <v>16</v>
       </c>
       <c r="X35">
         <v>30</v>
       </c>
       <c r="Y35">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="Z35">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
       </c>
+      <c r="U36">
+        <v>16</v>
+      </c>
       <c r="V36">
         <v>2</v>
+      </c>
+      <c r="W36">
+        <v>17</v>
       </c>
       <c r="X36">
         <v>30</v>
       </c>
       <c r="Y36">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z36">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
       </c>
+      <c r="U37">
+        <v>16</v>
+      </c>
       <c r="V37">
         <v>2</v>
       </c>
+      <c r="W37">
+        <v>18</v>
+      </c>
       <c r="Y37">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="Z37">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
       </c>
+      <c r="U38">
+        <v>17</v>
+      </c>
       <c r="V38">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>18</v>
       </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="Z38">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -2951,6 +3015,9 @@
       <c r="Q39">
         <v>2</v>
       </c>
+      <c r="U39">
+        <v>16</v>
+      </c>
       <c r="V39">
         <v>2</v>
       </c>
@@ -2962,33 +3029,33 @@
       </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="Z39">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3014,26 +3081,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -3062,26 +3129,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3107,26 +3174,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3134,6 +3201,9 @@
       <c r="Q43">
         <v>2</v>
       </c>
+      <c r="U43">
+        <v>14</v>
+      </c>
       <c r="V43">
         <v>2</v>
       </c>
@@ -3145,33 +3215,33 @@
       </c>
       <c r="Y43">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="Z43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3200,26 +3270,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3248,69 +3318,78 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
       </c>
+      <c r="U46">
+        <v>18</v>
+      </c>
       <c r="V46">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W46">
+        <v>17</v>
       </c>
       <c r="X46">
         <v>30</v>
       </c>
       <c r="Y46">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="Z46">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
       </c>
+      <c r="U47">
+        <v>16</v>
+      </c>
       <c r="V47">
         <v>2</v>
       </c>
@@ -3319,33 +3398,33 @@
       </c>
       <c r="Y47">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="Z47">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3359,26 +3438,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3395,26 +3474,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3437,26 +3516,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3472,33 +3551,33 @@
       </c>
       <c r="Y51">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="Z51">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3515,26 +3594,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3560,26 +3639,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3587,80 +3666,92 @@
       <c r="Q54">
         <v>1</v>
       </c>
+      <c r="U54">
+        <v>14</v>
+      </c>
       <c r="V54">
         <v>1</v>
       </c>
+      <c r="W54">
+        <v>17</v>
+      </c>
       <c r="X54">
         <v>30</v>
       </c>
       <c r="Y54">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="Z54">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
       </c>
+      <c r="U55">
+        <v>17</v>
+      </c>
       <c r="V55">
         <v>1</v>
       </c>
+      <c r="W55">
+        <v>17</v>
+      </c>
       <c r="X55">
         <v>30</v>
       </c>
       <c r="Y55">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Z55">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3668,41 +3759,47 @@
       <c r="Q56">
         <v>5</v>
       </c>
+      <c r="U56">
+        <v>15</v>
+      </c>
       <c r="V56">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <v>18</v>
       </c>
       <c r="X56">
         <v>30</v>
       </c>
       <c r="Y56">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="Z56">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3710,74 +3807,86 @@
       <c r="Q57">
         <v>5</v>
       </c>
+      <c r="U57">
+        <v>16</v>
+      </c>
       <c r="V57">
         <v>1</v>
       </c>
+      <c r="W57">
+        <v>18</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
       </c>
+      <c r="U58">
+        <v>16</v>
+      </c>
       <c r="V58">
         <v>2</v>
       </c>
+      <c r="W58">
+        <v>16</v>
+      </c>
       <c r="Y58">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3803,26 +3912,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3830,38 +3939,47 @@
       <c r="Q60">
         <v>5</v>
       </c>
+      <c r="U60">
+        <v>19</v>
+      </c>
       <c r="V60">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>16</v>
+      </c>
+      <c r="X60">
+        <v>30</v>
       </c>
       <c r="Y60">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="Z60">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -3869,38 +3987,44 @@
       <c r="Q61">
         <v>5</v>
       </c>
+      <c r="U61">
+        <v>16</v>
+      </c>
       <c r="V61">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>16</v>
       </c>
       <c r="Y61">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="Z61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -3908,38 +4032,44 @@
       <c r="Q62">
         <v>5</v>
       </c>
+      <c r="U62">
+        <v>16</v>
+      </c>
       <c r="V62">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>18</v>
       </c>
       <c r="Y62">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Z62">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -3968,26 +4098,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -4016,26 +4146,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -4061,26 +4191,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -4103,26 +4233,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -4130,41 +4260,47 @@
       <c r="Q67">
         <v>5</v>
       </c>
+      <c r="U67">
+        <v>16</v>
+      </c>
       <c r="V67">
         <v>2</v>
+      </c>
+      <c r="W67">
+        <v>19</v>
       </c>
       <c r="X67">
         <v>30</v>
       </c>
       <c r="Y67">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="Z67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -4190,26 +4326,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4238,26 +4374,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4265,38 +4401,44 @@
       <c r="Q70">
         <v>5</v>
       </c>
+      <c r="U70">
+        <v>16</v>
+      </c>
       <c r="V70">
         <v>2</v>
       </c>
+      <c r="W70">
+        <v>18</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="Z70">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4322,26 +4464,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4370,26 +4512,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4397,6 +4539,9 @@
       <c r="Q73">
         <v>5</v>
       </c>
+      <c r="U73">
+        <v>16</v>
+      </c>
       <c r="V73">
         <v>2</v>
       </c>
@@ -4408,33 +4553,33 @@
       </c>
       <c r="Y73">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Z73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4463,26 +4608,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4501,33 +4646,33 @@
       </c>
       <c r="Y75">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Z75">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4535,41 +4680,47 @@
       <c r="Q76">
         <v>2</v>
       </c>
+      <c r="U76">
+        <v>18</v>
+      </c>
       <c r="V76">
         <v>2</v>
+      </c>
+      <c r="W76">
+        <v>16</v>
       </c>
       <c r="X76">
         <v>30</v>
       </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y102" si="1">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="Z76">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4598,26 +4749,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4640,26 +4791,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4688,26 +4839,26 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4736,26 +4887,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4784,26 +4935,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -4832,26 +4983,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -4859,41 +5010,47 @@
       <c r="Q83">
         <v>5</v>
       </c>
+      <c r="U83">
+        <v>19</v>
+      </c>
       <c r="V83">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>17</v>
       </c>
       <c r="X83">
         <v>30</v>
       </c>
       <c r="Y83">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Z83">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -4919,62 +5076,68 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
+      <c r="U85">
+        <v>16</v>
+      </c>
       <c r="V85">
         <v>2</v>
+      </c>
+      <c r="W85">
+        <v>17</v>
       </c>
       <c r="X85">
         <v>30</v>
       </c>
       <c r="Y85">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="Z85">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -4997,26 +5160,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -5045,26 +5208,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -5084,26 +5247,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -5132,26 +5295,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -5159,101 +5322,119 @@
       <c r="Q90">
         <v>5</v>
       </c>
+      <c r="U90">
+        <v>16</v>
+      </c>
       <c r="V90">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>18</v>
       </c>
       <c r="Y90">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="Z90">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
+      <c r="U91">
+        <v>14</v>
+      </c>
       <c r="V91">
         <v>2</v>
+      </c>
+      <c r="W91">
+        <v>15</v>
       </c>
       <c r="Y91">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="Z91">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
       </c>
+      <c r="U92">
+        <v>16</v>
+      </c>
       <c r="V92">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>14</v>
       </c>
       <c r="Y92">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="Z92">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -5267,20 +5448,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -5294,20 +5475,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -5321,20 +5502,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5348,20 +5529,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5375,20 +5556,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5402,20 +5583,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5429,20 +5610,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5456,20 +5637,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5483,20 +5664,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5525,6 +5706,464 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="E102:G102"/>
@@ -5549,464 +6188,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2247,9 +2247,12 @@
       <c r="W20">
         <v>18</v>
       </c>
+      <c r="X20">
+        <v>30</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="Z20">
         <v>5</v>
@@ -2292,9 +2295,12 @@
       <c r="W21">
         <v>16</v>
       </c>
+      <c r="X21">
+        <v>30</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z21">
         <v>5</v>
@@ -2425,11 +2431,11 @@
         <v>17</v>
       </c>
       <c r="X24">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Z24">
         <v>5</v>
@@ -2646,9 +2652,12 @@
       <c r="W30">
         <v>16</v>
       </c>
+      <c r="X30">
+        <v>30</v>
+      </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Z30">
         <v>5</v>
@@ -2685,9 +2694,12 @@
       <c r="W31">
         <v>18</v>
       </c>
+      <c r="X31">
+        <v>30</v>
+      </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="Z31">
         <v>5</v>
@@ -2727,9 +2739,12 @@
       <c r="W32">
         <v>18</v>
       </c>
+      <c r="X32">
+        <v>30</v>
+      </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="Z32">
         <v>5</v>
@@ -2769,9 +2784,12 @@
       <c r="W33">
         <v>19</v>
       </c>
+      <c r="X33">
+        <v>30</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Z33">
         <v>5</v>
@@ -2979,9 +2997,12 @@
       <c r="W38">
         <v>18</v>
       </c>
+      <c r="X38">
+        <v>30</v>
+      </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="Z38">
         <v>5</v>
@@ -3165,9 +3186,12 @@
       <c r="W42">
         <v>18</v>
       </c>
+      <c r="X42">
+        <v>30</v>
+      </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Z42">
         <v>5</v>
@@ -3396,9 +3420,12 @@
       <c r="W47">
         <v>16</v>
       </c>
+      <c r="X47">
+        <v>30</v>
+      </c>
       <c r="Y47">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Z47">
         <v>5</v>
@@ -3507,9 +3534,12 @@
       <c r="W50">
         <v>14</v>
       </c>
+      <c r="X50">
+        <v>30</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Z50">
         <v>5</v>
@@ -3630,9 +3660,12 @@
       <c r="W53">
         <v>17</v>
       </c>
+      <c r="X53">
+        <v>30</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="Z53">
         <v>5</v>
@@ -3816,9 +3849,12 @@
       <c r="W57">
         <v>18</v>
       </c>
+      <c r="X57">
+        <v>30</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="Z57">
         <v>5</v>
@@ -3903,9 +3939,12 @@
       <c r="W59">
         <v>12</v>
       </c>
+      <c r="X59">
+        <v>30</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="Z59">
         <v>5</v>
@@ -3988,7 +4027,7 @@
         <v>5</v>
       </c>
       <c r="U61">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V61">
         <v>2</v>
@@ -3996,9 +4035,12 @@
       <c r="W61">
         <v>16</v>
       </c>
+      <c r="X61">
+        <v>30</v>
+      </c>
       <c r="Y61">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Z61">
         <v>5</v>
@@ -4041,9 +4083,12 @@
       <c r="W62">
         <v>18</v>
       </c>
+      <c r="X62">
+        <v>30</v>
+      </c>
       <c r="Y62">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Z62">
         <v>5</v>
@@ -4317,9 +4362,12 @@
       <c r="W68">
         <v>15</v>
       </c>
+      <c r="X68">
+        <v>30</v>
+      </c>
       <c r="Y68">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z68">
         <v>5</v>
@@ -4410,9 +4458,12 @@
       <c r="W70">
         <v>18</v>
       </c>
+      <c r="X70">
+        <v>30</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="Z70">
         <v>5</v>
@@ -4455,9 +4506,12 @@
       <c r="W71">
         <v>12</v>
       </c>
+      <c r="X71">
+        <v>30</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Z71">
         <v>5</v>
@@ -5067,9 +5121,12 @@
       <c r="W84">
         <v>12</v>
       </c>
+      <c r="X84">
+        <v>30</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="Z84">
         <v>5</v>
@@ -5284,11 +5341,11 @@
         <v>19</v>
       </c>
       <c r="X89">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Z89">
         <v>5</v>
@@ -5331,9 +5388,12 @@
       <c r="W90">
         <v>18</v>
       </c>
+      <c r="X90">
+        <v>30</v>
+      </c>
       <c r="Y90">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z90">
         <v>5</v>
@@ -5370,9 +5430,12 @@
       <c r="W91">
         <v>15</v>
       </c>
+      <c r="X91">
+        <v>30</v>
+      </c>
       <c r="Y91">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="Z91">
         <v>5</v>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,12 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,14 +1095,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,23 +1113,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1552,19 +1552,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1585,19 +1585,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1607,19 +1607,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1629,19 +1629,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1673,19 +1673,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1739,34 +1739,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1803,35 +1803,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="28">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1869,26 +1869,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1911,26 +1911,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1959,26 +1959,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -2007,26 +2007,26 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
@@ -2052,26 +2052,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2097,26 +2097,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2130,26 +2130,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2178,26 +2178,26 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2214,26 +2214,26 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2259,26 +2259,26 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2307,26 +2307,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2352,26 +2352,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2394,26 +2394,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2442,26 +2442,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2475,26 +2475,26 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2508,26 +2508,26 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2550,26 +2550,26 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2586,26 +2586,26 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2619,26 +2619,26 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2664,26 +2664,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="U31">
         <v>17</v>
@@ -2706,26 +2706,26 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -2751,26 +2751,26 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -2796,26 +2796,26 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="U34">
         <v>16</v>
@@ -2835,26 +2835,26 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="U35">
         <v>17</v>
@@ -2877,26 +2877,26 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -2922,26 +2922,26 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -2964,26 +2964,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -3009,26 +3009,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -3057,26 +3057,26 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3102,26 +3102,26 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -3150,26 +3150,26 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3198,26 +3198,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3246,26 +3246,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3294,26 +3294,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3342,26 +3342,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3387,26 +3387,26 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3432,26 +3432,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3465,26 +3465,26 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3501,26 +3501,26 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -3546,26 +3546,26 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -3588,26 +3588,26 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -3624,26 +3624,26 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>15</v>
@@ -3672,26 +3672,26 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="P54">
         <v>15</v>
@@ -3720,26 +3720,26 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>5</v>
@@ -3765,26 +3765,26 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="P56">
         <v>15</v>
@@ -3813,26 +3813,26 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="P57">
         <v>17</v>
@@ -3861,26 +3861,26 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>17</v>
@@ -3903,26 +3903,26 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -3951,26 +3951,26 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>23</v>
@@ -3999,26 +3999,26 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>23</v>
@@ -4047,26 +4047,26 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>21</v>
@@ -4095,26 +4095,26 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="P63">
         <v>15</v>
@@ -4143,26 +4143,26 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>13</v>
@@ -4191,26 +4191,26 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="P65">
         <v>13</v>
@@ -4236,26 +4236,26 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>15</v>
@@ -4278,26 +4278,26 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>19</v>
@@ -4326,26 +4326,26 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>16</v>
@@ -4374,26 +4374,26 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="P69">
         <v>16</v>
@@ -4422,26 +4422,26 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>17</v>
@@ -4470,26 +4470,26 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="P71">
         <v>17</v>
@@ -4518,26 +4518,26 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>13</v>
@@ -4566,26 +4566,26 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>16</v>
@@ -4614,26 +4614,26 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="P74">
         <v>15</v>
@@ -4662,26 +4662,26 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>17</v>
@@ -4707,26 +4707,26 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="P76">
         <v>17</v>
@@ -4755,26 +4755,26 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>15</v>
@@ -4803,26 +4803,26 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>13</v>
@@ -4845,26 +4845,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="P79">
         <v>16</v>
@@ -4886,33 +4886,33 @@
       </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>17</v>
@@ -4941,26 +4941,26 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -4989,26 +4989,26 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>15</v>
@@ -5037,26 +5037,26 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>15</v>
@@ -5085,26 +5085,26 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="P84">
         <v>15</v>
@@ -5133,26 +5133,26 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="U85">
         <v>16</v>
@@ -5175,26 +5175,26 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5217,26 +5217,26 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="P87">
         <v>16</v>
@@ -5265,26 +5265,26 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>16</v>
@@ -5304,26 +5304,26 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>16</v>
@@ -5352,26 +5352,26 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>16</v>
@@ -5400,26 +5400,26 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="U91">
         <v>14</v>
@@ -5442,26 +5442,26 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="Q92">
         <v>5</v>
@@ -5484,20 +5484,20 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="V93">
         <v>1</v>
@@ -5511,20 +5511,20 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="V94">
         <v>1</v>
@@ -5538,20 +5538,20 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="V95">
         <v>1</v>
@@ -5565,20 +5565,20 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="V96">
         <v>1</v>
@@ -5592,20 +5592,20 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="V97">
         <v>1</v>
@@ -5619,20 +5619,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="V98">
         <v>1</v>
@@ -5646,20 +5646,20 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="V99">
         <v>1</v>
@@ -5673,20 +5673,20 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="V100">
         <v>1</v>
@@ -5700,20 +5700,20 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="V101">
         <v>1</v>
@@ -5727,20 +5727,20 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="V102">
         <v>1</v>
@@ -5769,39 +5769,431 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -5826,431 +6218,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z108" sqref="Z108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1543,9 @@
     <col min="14" max="15" width="0.140625" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="20" width="2.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" customWidth="1"/>
     <col min="21" max="21" width="6.85546875" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
@@ -1817,17 +1819,20 @@
       <c r="F11" s="13"/>
       <c r="G11" s="12"/>
       <c r="H11" s="14">
+        <f>IF((Y11)&gt;70,10,"")</f>
         <v>10</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="5">
+        <f>IF((Y11)&gt;70,20,"")</f>
         <v>20</v>
       </c>
       <c r="K11" s="5">
+        <f>IF((Y11)&gt;70,20,"")</f>
         <v>20</v>
       </c>
       <c r="L11" s="14">
-        <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
+        <f>IF((Y11)&gt;70,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="M11" s="22"/>
@@ -1882,11 +1887,23 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="14">
+        <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;70,10,"")</f>
+        <v>10</v>
+      </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;70,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
+        <v>41</v>
+      </c>
       <c r="M12" s="22"/>
       <c r="N12" s="15"/>
       <c r="O12" s="2"/>
@@ -1903,7 +1920,7 @@
         <v>18</v>
       </c>
       <c r="Y12">
-        <f t="shared" ref="Y12:Y75" si="0">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
+        <f t="shared" ref="Y12:Y75" si="4">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
         <v>91</v>
       </c>
       <c r="Z12">
@@ -1924,11 +1941,23 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="N13" s="15"/>
       <c r="O13" s="2"/>
@@ -1951,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="Z13">
@@ -1972,11 +2001,23 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="15"/>
       <c r="O14" s="2"/>
@@ -1999,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="Z14">
@@ -2020,11 +2061,23 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
       <c r="M15" s="22"/>
       <c r="N15" s="15"/>
       <c r="O15" s="2"/>
@@ -2044,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="Z15">
@@ -2065,11 +2118,23 @@
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="15"/>
       <c r="O16" s="2"/>
@@ -2089,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="Z16">
@@ -2110,11 +2175,23 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I17" s="15"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M17" s="22"/>
       <c r="N17" s="15"/>
       <c r="O17" s="2"/>
@@ -2122,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Z17">
@@ -2143,11 +2220,23 @@
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="15"/>
       <c r="O18" s="2"/>
@@ -2170,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="Z18">
@@ -2191,11 +2280,23 @@
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="15"/>
       <c r="O19" s="2"/>
@@ -2206,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Z19">
@@ -2227,11 +2328,23 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="M20" s="22"/>
       <c r="N20" s="15"/>
       <c r="O20" s="2"/>
@@ -2251,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="Z20">
@@ -2272,11 +2385,23 @@
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I21" s="15"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M21" s="22"/>
       <c r="N21" s="15"/>
       <c r="O21" s="2"/>
@@ -2299,7 +2424,7 @@
         <v>30</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="Z21">
@@ -2320,11 +2445,23 @@
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
       <c r="M22" s="22"/>
       <c r="N22" s="15"/>
       <c r="O22" s="2"/>
@@ -2344,7 +2481,7 @@
         <v>30</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="Z22">
@@ -2365,11 +2502,23 @@
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I23" s="15"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L23" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="15"/>
       <c r="O23" s="2"/>
@@ -2386,7 +2535,7 @@
         <v>20</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="Z23">
@@ -2407,11 +2556,23 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
+      <c r="J24" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="M24" s="22"/>
       <c r="N24" s="15"/>
       <c r="O24" s="2"/>
@@ -2434,7 +2595,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="Z24">
@@ -2455,11 +2616,23 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I25" s="15"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L25" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M25" s="22"/>
       <c r="N25" s="15"/>
       <c r="O25" s="2"/>
@@ -2467,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Z25">
@@ -2488,11 +2661,23 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I26" s="15"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L26" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M26" s="22"/>
       <c r="N26" s="15"/>
       <c r="O26" s="2"/>
@@ -2500,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Z26">
@@ -2521,11 +2706,23 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I27" s="15"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="14"/>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M27" s="22"/>
       <c r="N27" s="15"/>
       <c r="O27" s="2"/>
@@ -2542,11 +2739,11 @@
         <v>30</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="Z27">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,11 +2760,23 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I28" s="15"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M28" s="22"/>
       <c r="N28" s="15"/>
       <c r="O28" s="2"/>
@@ -2578,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Z28">
@@ -2599,11 +2808,23 @@
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I29" s="15"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M29" s="22"/>
       <c r="N29" s="15"/>
       <c r="O29" s="2"/>
@@ -2611,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Z29">
@@ -2632,11 +2853,23 @@
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I30" s="15"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
+      <c r="J30" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
       <c r="M30" s="22"/>
       <c r="N30" s="15"/>
       <c r="O30" s="2"/>
@@ -2656,7 +2889,7 @@
         <v>30</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="Z30">
@@ -2677,11 +2910,23 @@
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I31" s="15"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
+      <c r="J31" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
       <c r="M31" s="22"/>
       <c r="N31" s="15"/>
       <c r="O31" s="2"/>
@@ -2698,7 +2943,7 @@
         <v>30</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="Z31">
@@ -2719,11 +2964,23 @@
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I32" s="15"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
+      <c r="J32" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="M32" s="22"/>
       <c r="N32" s="15"/>
       <c r="O32" s="2"/>
@@ -2743,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="Z32">
@@ -2764,11 +3021,23 @@
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I33" s="15"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="14"/>
+      <c r="J33" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="M33" s="22"/>
       <c r="N33" s="15"/>
       <c r="O33" s="2"/>
@@ -2788,7 +3057,7 @@
         <v>30</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="Z33">
@@ -2809,11 +3078,23 @@
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I34" s="15"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="14"/>
+      <c r="J34" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="M34" s="22"/>
       <c r="N34" s="15"/>
       <c r="O34" s="2"/>
@@ -2821,14 +3102,14 @@
         <v>16</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34">
         <v>18</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="Z34">
         <v>25</v>
@@ -2848,11 +3129,23 @@
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I35" s="15"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="14"/>
+      <c r="J35" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
       <c r="M35" s="22"/>
       <c r="N35" s="15"/>
       <c r="O35" s="2"/>
@@ -2869,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="Z35">
@@ -2890,11 +3183,23 @@
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
+      <c r="H36" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I36" s="15"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="14"/>
+      <c r="J36" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
       <c r="M36" s="22"/>
       <c r="N36" s="15"/>
       <c r="O36" s="2"/>
@@ -2914,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="Z36">
@@ -2935,11 +3240,23 @@
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
+      <c r="H37" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I37" s="15"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="14"/>
+      <c r="J37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L37" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M37" s="22"/>
       <c r="N37" s="15"/>
       <c r="O37" s="2"/>
@@ -2956,11 +3273,11 @@
         <v>18</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="Z37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,11 +3294,23 @@
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I38" s="15"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
+      <c r="J38" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L38" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M38" s="22"/>
       <c r="N38" s="15"/>
       <c r="O38" s="2"/>
@@ -3001,7 +3330,7 @@
         <v>30</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="Z38">
@@ -3022,11 +3351,23 @@
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I39" s="15"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
+      <c r="J39" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
       <c r="M39" s="22"/>
       <c r="N39" s="15"/>
       <c r="O39" s="2"/>
@@ -3049,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="Z39">
@@ -3070,11 +3411,23 @@
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I40" s="15"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="14"/>
+      <c r="J40" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L40" s="14">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
       <c r="M40" s="22"/>
       <c r="N40" s="15"/>
       <c r="O40" s="2"/>
@@ -3094,7 +3447,7 @@
         <v>20</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="Z40">
@@ -3115,11 +3468,23 @@
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="14"/>
+      <c r="J41" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M41" s="22"/>
       <c r="N41" s="15"/>
       <c r="O41" s="2"/>
@@ -3142,7 +3507,7 @@
         <v>30</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="Z41">
@@ -3163,11 +3528,23 @@
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
+      <c r="H42" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I42" s="15"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="14"/>
+      <c r="J42" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M42" s="22"/>
       <c r="N42" s="15"/>
       <c r="O42" s="2"/>
@@ -3190,7 +3567,7 @@
         <v>30</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="Z42">
@@ -3211,11 +3588,23 @@
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
+      <c r="H43" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I43" s="15"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="14"/>
+      <c r="J43" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
       <c r="M43" s="22"/>
       <c r="N43" s="15"/>
       <c r="O43" s="2"/>
@@ -3238,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="Z43">
@@ -3259,11 +3648,23 @@
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I44" s="15"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
+      <c r="J44" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M44" s="22"/>
       <c r="N44" s="15"/>
       <c r="O44" s="2"/>
@@ -3286,7 +3687,7 @@
         <v>30</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="Z44">
@@ -3307,11 +3708,23 @@
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I45" s="15"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="14"/>
+      <c r="J45" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M45" s="22"/>
       <c r="N45" s="15"/>
       <c r="O45" s="2"/>
@@ -3334,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="Z45">
@@ -3355,11 +3768,23 @@
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
+      <c r="H46" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I46" s="15"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="14"/>
+      <c r="J46" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M46" s="22"/>
       <c r="N46" s="15"/>
       <c r="O46" s="2"/>
@@ -3379,7 +3804,7 @@
         <v>30</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="Z46">
@@ -3400,11 +3825,23 @@
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
+      <c r="H47" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I47" s="15"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="14"/>
+      <c r="J47" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
       <c r="M47" s="22"/>
       <c r="N47" s="15"/>
       <c r="O47" s="2"/>
@@ -3424,7 +3861,7 @@
         <v>30</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="Z47">
@@ -3445,11 +3882,23 @@
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I48" s="15"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="14"/>
+      <c r="J48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L48" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M48" s="22"/>
       <c r="N48" s="15"/>
       <c r="O48" s="2"/>
@@ -3457,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Z48">
@@ -3478,11 +3927,23 @@
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
+      <c r="H49" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I49" s="15"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="14"/>
+      <c r="J49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L49" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M49" s="22"/>
       <c r="N49" s="15"/>
       <c r="O49" s="2"/>
@@ -3493,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="Z49">
@@ -3514,11 +3975,23 @@
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
+      <c r="H50" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I50" s="15"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="14"/>
+      <c r="J50" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
       <c r="M50" s="22"/>
       <c r="N50" s="15"/>
       <c r="O50" s="2"/>
@@ -3538,7 +4011,7 @@
         <v>30</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="Z50">
@@ -3559,11 +4032,23 @@
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I51" s="15"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="14"/>
+      <c r="J51" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L51" s="14">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
       <c r="M51" s="22"/>
       <c r="N51" s="15"/>
       <c r="O51" s="2"/>
@@ -3580,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="Z51">
@@ -3601,11 +4086,23 @@
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I52" s="15"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="14"/>
+      <c r="J52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L52" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M52" s="22"/>
       <c r="N52" s="15"/>
       <c r="O52" s="2"/>
@@ -3616,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Z52">
@@ -3637,11 +4134,23 @@
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I53" s="15"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="14"/>
+      <c r="J53" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L53" s="14">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
       <c r="M53" s="22"/>
       <c r="N53" s="15"/>
       <c r="O53" s="2"/>
@@ -3664,7 +4173,7 @@
         <v>30</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="Z53">
@@ -3685,11 +4194,23 @@
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I54" s="15"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="14"/>
+      <c r="J54" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L54" s="14">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
       <c r="M54" s="22"/>
       <c r="N54" s="15"/>
       <c r="O54" s="2"/>
@@ -3712,7 +4233,7 @@
         <v>30</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="Z54">
@@ -3733,11 +4254,23 @@
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I55" s="15"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="14"/>
+      <c r="J55" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="M55" s="22"/>
       <c r="N55" s="15"/>
       <c r="O55" s="2"/>
@@ -3757,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="Z55">
@@ -3778,11 +4311,23 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I56" s="15"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="14"/>
+      <c r="J56" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L56" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M56" s="22"/>
       <c r="N56" s="15"/>
       <c r="O56" s="2"/>
@@ -3805,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="Z56">
@@ -3826,11 +4371,23 @@
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I57" s="15"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="14"/>
+      <c r="J57" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L57" s="14">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
       <c r="M57" s="22"/>
       <c r="N57" s="15"/>
       <c r="O57" s="2"/>
@@ -3853,7 +4410,7 @@
         <v>30</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="Z57">
@@ -3874,11 +4431,23 @@
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
+      <c r="H58" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I58" s="15"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="14"/>
+      <c r="J58" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L58" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
       <c r="M58" s="22"/>
       <c r="N58" s="15"/>
       <c r="O58" s="2"/>
@@ -3895,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="Z58">
@@ -3916,11 +4485,23 @@
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I59" s="15"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="14"/>
+      <c r="J59" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L59" s="14">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
       <c r="M59" s="22"/>
       <c r="N59" s="15"/>
       <c r="O59" s="2"/>
@@ -3943,7 +4524,7 @@
         <v>30</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="Z59">
@@ -3964,11 +4545,23 @@
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I60" s="15"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="14"/>
+      <c r="J60" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L60" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M60" s="22"/>
       <c r="N60" s="15"/>
       <c r="O60" s="2"/>
@@ -3991,7 +4584,7 @@
         <v>30</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="Z60">
@@ -4012,11 +4605,23 @@
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
+      <c r="H61" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I61" s="15"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="14"/>
+      <c r="J61" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L61" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M61" s="22"/>
       <c r="N61" s="15"/>
       <c r="O61" s="2"/>
@@ -4039,7 +4644,7 @@
         <v>30</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="Z61">
@@ -4060,11 +4665,23 @@
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
+      <c r="H62" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I62" s="15"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="14"/>
+      <c r="J62" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L62" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M62" s="22"/>
       <c r="N62" s="15"/>
       <c r="O62" s="2"/>
@@ -4087,7 +4704,7 @@
         <v>30</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="Z62">
@@ -4108,11 +4725,23 @@
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
+      <c r="H63" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I63" s="15"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="14"/>
+      <c r="J63" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L63" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M63" s="22"/>
       <c r="N63" s="15"/>
       <c r="O63" s="2"/>
@@ -4135,7 +4764,7 @@
         <v>30</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="Z63">
@@ -4156,11 +4785,23 @@
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
+      <c r="H64" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I64" s="15"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="14"/>
+      <c r="J64" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L64" s="14">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
       <c r="M64" s="22"/>
       <c r="N64" s="15"/>
       <c r="O64" s="2"/>
@@ -4183,7 +4824,7 @@
         <v>30</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="Z64">
@@ -4204,11 +4845,23 @@
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
+      <c r="H65" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I65" s="15"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="14"/>
+      <c r="J65" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L65" s="14">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="M65" s="22"/>
       <c r="N65" s="15"/>
       <c r="O65" s="2"/>
@@ -4228,7 +4881,7 @@
         <v>18</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="Z65">
@@ -4249,11 +4902,23 @@
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
+      <c r="H66" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I66" s="15"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="14"/>
+      <c r="J66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L66" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M66" s="22"/>
       <c r="N66" s="15"/>
       <c r="O66" s="2"/>
@@ -4270,7 +4935,7 @@
         <v>14</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="Z66">
@@ -4291,11 +4956,23 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
+      <c r="H67" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I67" s="15"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="14"/>
+      <c r="J67" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L67" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M67" s="22"/>
       <c r="N67" s="15"/>
       <c r="O67" s="2"/>
@@ -4318,7 +4995,7 @@
         <v>30</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="Z67">
@@ -4339,11 +5016,23 @@
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
+      <c r="H68" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I68" s="15"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="14"/>
+      <c r="J68" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L68" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M68" s="22"/>
       <c r="N68" s="15"/>
       <c r="O68" s="2"/>
@@ -4366,7 +5055,7 @@
         <v>30</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="Z68">
@@ -4387,11 +5076,23 @@
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
+      <c r="H69" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I69" s="15"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="14"/>
+      <c r="J69" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L69" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M69" s="22"/>
       <c r="N69" s="15"/>
       <c r="O69" s="2"/>
@@ -4414,7 +5115,7 @@
         <v>30</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="Z69">
@@ -4435,11 +5136,23 @@
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
+      <c r="H70" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I70" s="15"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="14"/>
+      <c r="J70" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L70" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M70" s="22"/>
       <c r="N70" s="15"/>
       <c r="O70" s="2"/>
@@ -4462,7 +5175,7 @@
         <v>30</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="Z70">
@@ -4483,11 +5196,23 @@
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
+      <c r="H71" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I71" s="15"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="14"/>
+      <c r="J71" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L71" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M71" s="22"/>
       <c r="N71" s="15"/>
       <c r="O71" s="2"/>
@@ -4510,7 +5235,7 @@
         <v>30</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Z71">
@@ -4531,11 +5256,23 @@
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
+      <c r="H72" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I72" s="15"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="14"/>
+      <c r="J72" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L72" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M72" s="22"/>
       <c r="N72" s="15"/>
       <c r="O72" s="2"/>
@@ -4558,7 +5295,7 @@
         <v>30</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="Z72">
@@ -4579,11 +5316,23 @@
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
+      <c r="H73" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I73" s="15"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="14"/>
+      <c r="J73" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L73" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M73" s="22"/>
       <c r="N73" s="15"/>
       <c r="O73" s="2"/>
@@ -4606,7 +5355,7 @@
         <v>30</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="Z73">
@@ -4627,11 +5376,23 @@
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
+      <c r="H74" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I74" s="15"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="14"/>
+      <c r="J74" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K74" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L74" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="M74" s="22"/>
       <c r="N74" s="15"/>
       <c r="O74" s="2"/>
@@ -4654,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="Z74">
@@ -4675,11 +5436,23 @@
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
+      <c r="H75" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I75" s="15"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="14"/>
+      <c r="J75" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L75" s="14">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
       <c r="M75" s="22"/>
       <c r="N75" s="15"/>
       <c r="O75" s="2"/>
@@ -4699,7 +5472,7 @@
         <v>19</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="Z75">
@@ -4720,11 +5493,23 @@
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="14">
+        <f t="shared" ref="H76:H92" si="5">IF((Y76)&gt;70,10,"")</f>
+        <v>10</v>
+      </c>
       <c r="I76" s="15"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="14"/>
+      <c r="J76" s="5">
+        <f t="shared" ref="J76:J92" si="6">IF((Y76)&gt;70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K76" s="5">
+        <f t="shared" ref="K76:K92" si="7">IF((Y76)&gt;70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="L76" s="14">
+        <f t="shared" ref="L76:L93" si="8">IF((Y76)&gt;70,IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50))), "" )</f>
+        <v>50</v>
+      </c>
       <c r="M76" s="22"/>
       <c r="N76" s="15"/>
       <c r="O76" s="2"/>
@@ -4747,7 +5532,7 @@
         <v>30</v>
       </c>
       <c r="Y76">
-        <f t="shared" ref="Y76:Y102" si="1">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
+        <f t="shared" ref="Y76:Y102" si="9">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
         <v>106</v>
       </c>
       <c r="Z76">
@@ -4768,11 +5553,23 @@
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I77" s="15"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="14"/>
+      <c r="J77" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L77" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M77" s="22"/>
       <c r="N77" s="15"/>
       <c r="O77" s="2"/>
@@ -4795,7 +5592,7 @@
         <v>30</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="Z77">
@@ -4816,11 +5613,23 @@
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
+      <c r="H78" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I78" s="15"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="14"/>
+      <c r="J78" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K78" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L78" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="M78" s="22"/>
       <c r="N78" s="15"/>
       <c r="O78" s="2"/>
@@ -4837,11 +5646,11 @@
         <v>30</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="Z78">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4858,11 +5667,23 @@
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I79" s="15"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="14"/>
+      <c r="J79" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K79" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L79" s="14">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
       <c r="M79" s="22"/>
       <c r="N79" s="15"/>
       <c r="O79" s="2"/>
@@ -4885,7 +5706,7 @@
         <v>30</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="Z79">
@@ -4906,11 +5727,23 @@
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I80" s="15"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
+      <c r="J80" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L80" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M80" s="22"/>
       <c r="N80" s="15"/>
       <c r="O80" s="2"/>
@@ -4933,7 +5766,7 @@
         <v>30</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="Z80">
@@ -4954,11 +5787,23 @@
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I81" s="15"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="14"/>
+      <c r="J81" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L81" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M81" s="22"/>
       <c r="N81" s="15"/>
       <c r="O81" s="2"/>
@@ -4981,7 +5826,7 @@
         <v>30</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="Z81">
@@ -5002,11 +5847,23 @@
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I82" s="15"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="14"/>
+      <c r="J82" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L82" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M82" s="22"/>
       <c r="N82" s="15"/>
       <c r="O82" s="2"/>
@@ -5029,7 +5886,7 @@
         <v>30</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
       <c r="Z82">
@@ -5050,11 +5907,23 @@
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I83" s="15"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="14"/>
+      <c r="J83" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K83" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L83" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M83" s="22"/>
       <c r="N83" s="15"/>
       <c r="O83" s="2"/>
@@ -5077,7 +5946,7 @@
         <v>30</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="Z83">
@@ -5098,11 +5967,23 @@
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I84" s="15"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="14"/>
+      <c r="J84" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K84" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L84" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
       <c r="M84" s="22"/>
       <c r="N84" s="15"/>
       <c r="O84" s="2"/>
@@ -5125,7 +6006,7 @@
         <v>30</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="Z84">
@@ -5146,11 +6027,23 @@
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I85" s="15"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="14"/>
+      <c r="J85" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K85" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L85" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M85" s="22"/>
       <c r="N85" s="15"/>
       <c r="O85" s="2"/>
@@ -5167,7 +6060,7 @@
         <v>30</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="Z85">
@@ -5188,11 +6081,23 @@
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I86" s="15"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="14"/>
+      <c r="J86" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K86" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L86" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="M86" s="22"/>
       <c r="N86" s="15"/>
       <c r="O86" s="2"/>
@@ -5209,7 +6114,7 @@
         <v>30</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="Z86">
@@ -5230,11 +6135,23 @@
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I87" s="15"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="14"/>
+      <c r="J87" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K87" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L87" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M87" s="22"/>
       <c r="N87" s="15"/>
       <c r="O87" s="2"/>
@@ -5257,7 +6174,7 @@
         <v>30</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
       <c r="Z87">
@@ -5278,11 +6195,23 @@
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I88" s="15"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="14"/>
+      <c r="J88" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K88" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L88" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="M88" s="22"/>
       <c r="N88" s="15"/>
       <c r="O88" s="2"/>
@@ -5296,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z88">
@@ -5317,11 +6246,23 @@
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I89" s="15"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="14"/>
+      <c r="J89" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L89" s="14">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
       <c r="M89" s="22"/>
       <c r="N89" s="15"/>
       <c r="O89" s="2"/>
@@ -5344,7 +6285,7 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="Z89">
@@ -5365,11 +6306,23 @@
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I90" s="15"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="14"/>
+      <c r="J90" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K90" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L90" s="14">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="M90" s="22"/>
       <c r="N90" s="15"/>
       <c r="O90" s="2"/>
@@ -5392,7 +6345,7 @@
         <v>30</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="Z90">
@@ -5413,11 +6366,23 @@
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I91" s="15"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="14"/>
+      <c r="J91" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K91" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="L91" s="14">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
       <c r="M91" s="22"/>
       <c r="N91" s="15"/>
       <c r="O91" s="2"/>
@@ -5434,7 +6399,7 @@
         <v>30</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="Z91">
@@ -5455,11 +6420,23 @@
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I92" s="15"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="14"/>
+      <c r="J92" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K92" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L92" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="M92" s="22"/>
       <c r="N92" s="15"/>
       <c r="O92" s="2"/>
@@ -5476,11 +6453,11 @@
         <v>14</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="Z92">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5495,7 +6472,10 @@
       <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14"/>
+      <c r="L93" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="M93" s="22"/>
       <c r="N93" s="15"/>
       <c r="O93" s="2"/>
@@ -5503,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z93">
@@ -5530,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z94">
@@ -5557,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z95">
@@ -5584,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z96">
@@ -5611,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z97">
@@ -5638,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z98">
@@ -5665,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z99">
@@ -5692,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z100">
@@ -5719,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z101">
@@ -5746,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z102">

--- a/OYM/_Documentos Comunes/PE_C32017.xlsx
+++ b/OYM/_Documentos Comunes/PE_C32017.xlsx
@@ -1081,6 +1081,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1095,14 +1101,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,29 +1119,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,9 +1521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z108" sqref="Z108"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11:N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,19 +1554,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1609,19 +1609,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1631,19 +1631,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1675,19 +1675,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1741,34 +1741,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1805,38 +1805,38 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="11">
         <v>0</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
-        <f>IF((Y11)&gt;70,10,"")</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
+        <f>IF((Y11)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
-        <f>IF((Y11)&gt;70,20,"")</f>
+        <f>IF((Y11)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="K11" s="5">
-        <f>IF((Y11)&gt;70,20,"")</f>
-        <v>20</v>
-      </c>
-      <c r="L11" s="14">
-        <f>IF((Y11)&gt;70,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
+        <f>IF((Y11)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="L11" s="16">
+        <f>IF((Y11)&gt;=70,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -1874,38 +1874,38 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14">
-        <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;70,10,"")</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16">
+        <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="17"/>
       <c r="J12" s="5">
-        <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;70,20,"")</f>
+        <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;70,20,"")</f>
-        <v>20</v>
-      </c>
-      <c r="L12" s="14">
-        <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;70,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
+        <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;=70,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
         <v>41</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
       <c r="P12">
         <v>14</v>
@@ -1928,24 +1928,24 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14">
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1954,12 +1954,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="16">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>14</v>
@@ -1988,24 +1988,24 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14">
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2014,12 +2014,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="16">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>16</v>
@@ -2048,24 +2048,24 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14">
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2074,12 +2074,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="16">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>10</v>
@@ -2105,24 +2105,24 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14">
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2131,12 +2131,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="16">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
       <c r="P16">
         <v>15</v>
@@ -2162,24 +2162,24 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14" t="str">
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2188,12 +2188,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L17" s="14" t="str">
+      <c r="L17" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
       <c r="V17">
         <v>1</v>
@@ -2207,24 +2207,24 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14">
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2233,12 +2233,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>15</v>
@@ -2267,24 +2267,24 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14" t="str">
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2293,12 +2293,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L19" s="14" t="str">
+      <c r="L19" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
       <c r="Q19">
         <v>5</v>
@@ -2315,24 +2315,24 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14">
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2341,12 +2341,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="16">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>13</v>
@@ -2372,24 +2372,24 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14">
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2398,12 +2398,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>16</v>
@@ -2432,24 +2432,24 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14">
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2458,12 +2458,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="16">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
       <c r="Q22">
         <v>5</v>
@@ -2489,24 +2489,24 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14" t="str">
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2515,12 +2515,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L23" s="14" t="str">
+      <c r="L23" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
       <c r="P23">
         <v>18</v>
@@ -2543,24 +2543,24 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14">
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2569,12 +2569,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="16">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
       <c r="P24">
         <v>14</v>
@@ -2603,24 +2603,24 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14" t="str">
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2629,12 +2629,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="L25" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="V25">
         <v>1</v>
@@ -2648,24 +2648,24 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14" t="str">
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2674,12 +2674,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L26" s="14" t="str">
+      <c r="L26" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
       <c r="V26">
         <v>1</v>
@@ -2693,38 +2693,38 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14" t="str">
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="5" t="str">
+        <v>10</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K27" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="K27" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L27" s="14" t="str">
+        <v>20</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>15</v>
@@ -2747,24 +2747,24 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14" t="str">
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2773,12 +2773,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L28" s="14" t="str">
+      <c r="L28" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
       <c r="Q28">
         <v>5</v>
@@ -2795,24 +2795,24 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14" t="str">
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2821,12 +2821,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L29" s="14" t="str">
+      <c r="L29" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="V29">
         <v>1</v>
@@ -2840,24 +2840,24 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14">
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2866,12 +2866,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="16">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>5</v>
@@ -2897,24 +2897,24 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14">
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2923,12 +2923,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="16">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
       <c r="U31">
         <v>17</v>
@@ -2951,24 +2951,24 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14">
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2977,12 +2977,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="16">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
       <c r="P32">
         <v>16</v>
@@ -3008,24 +3008,24 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14">
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3034,12 +3034,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="16">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>13</v>
@@ -3065,24 +3065,24 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14">
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3091,12 +3091,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="16">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
       <c r="U34">
         <v>16</v>
@@ -3116,24 +3116,24 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14">
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3142,12 +3142,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="16">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
       <c r="U35">
         <v>17</v>
@@ -3170,24 +3170,24 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14">
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3196,12 +3196,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="16">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
       <c r="Q36">
         <v>5</v>
@@ -3227,38 +3227,38 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14" t="str">
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="5" t="str">
+        <v>10</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K37" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="K37" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L37" s="14" t="str">
+        <v>20</v>
+      </c>
+      <c r="L37" s="16">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>13</v>
@@ -3281,24 +3281,24 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14">
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3307,12 +3307,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>15</v>
@@ -3338,24 +3338,24 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14">
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3364,12 +3364,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="16">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
       <c r="P39">
         <v>15</v>
@@ -3398,24 +3398,24 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14">
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3424,12 +3424,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="16">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3455,24 +3455,24 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14">
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3481,12 +3481,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
       <c r="P41">
         <v>19</v>
@@ -3515,24 +3515,24 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14">
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3541,12 +3541,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
       <c r="P42">
         <v>15</v>
@@ -3575,24 +3575,24 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14">
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3601,12 +3601,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="16">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>13</v>
@@ -3635,24 +3635,24 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14">
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I44" s="15"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3661,12 +3661,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
       <c r="P44">
         <v>16</v>
@@ -3695,24 +3695,24 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14">
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3721,12 +3721,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>16</v>
@@ -3755,24 +3755,24 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14">
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3781,12 +3781,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>16</v>
@@ -3812,24 +3812,24 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14">
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3838,12 +3838,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="16">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>16</v>
@@ -3869,24 +3869,24 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14" t="str">
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3895,12 +3895,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L48" s="14" t="str">
+      <c r="L48" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
       <c r="V48">
         <v>1</v>
@@ -3914,24 +3914,24 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14" t="str">
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I49" s="15"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3940,12 +3940,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L49" s="14" t="str">
+      <c r="L49" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>13</v>
@@ -3962,24 +3962,24 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14">
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I50" s="15"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3988,12 +3988,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="16">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>16</v>
@@ -4019,24 +4019,24 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14">
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4045,12 +4045,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="16">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
       <c r="P51">
         <v>14</v>
@@ -4073,24 +4073,24 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14" t="str">
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I52" s="15"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4099,12 +4099,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L52" s="14" t="str">
+      <c r="L52" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
       <c r="Q52">
         <v>5</v>
@@ -4121,24 +4121,24 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14">
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16">
         <f t="s